--- a/sol_score_update.xlsx
+++ b/sol_score_update.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phamtanthanh/Downloads/Automate_Office_data/SOL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB01964-9D62-624D-B6E7-52906E92A286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80303E82-DDA6-E64B-ACBD-5E3CF15E8C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="3440" windowWidth="27240" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="51200" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File gui CBNV" sheetId="1" r:id="rId1"/>
-    <sheet name="diemthi_demo" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'File gui CBNV'!$A$1:$L$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'File gui CBNV'!$A$1:$AD$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'File gui CBNV'!$A$1:$AE$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'File gui CBNV'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="344">
   <si>
     <t>Trưởng BP Admin</t>
   </si>
@@ -1058,31 +1057,25 @@
     <t>giaovien</t>
   </si>
   <si>
-    <t>dahoc</t>
+    <t>thực buổi đăng ký</t>
   </si>
   <si>
-    <t>nghi</t>
+    <t>đã học</t>
   </si>
   <si>
-    <t>thucbuoi_dk</t>
+    <t>nghỉ</t>
   </si>
   <si>
-    <t>lambai</t>
+    <t>làm bài</t>
   </si>
   <si>
-    <t>khonglam</t>
+    <t>không làm</t>
   </si>
   <si>
-    <t>lamthieu</t>
+    <t>làm thiếu</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>dauvao</t>
-  </si>
-  <si>
-    <t>TĐK 3.5</t>
+    <t>hv_id</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1085,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,14 +1126,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,8 +1140,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1177,11 +1176,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1210,241 +1224,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -33067,10 +32853,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD140"/>
+  <dimension ref="A1:AE140"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="84" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="84" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -33083,7 +32869,9 @@
     <col min="10" max="10" width="40.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="30.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="31" style="1" customWidth="1"/>
-    <col min="13" max="20" width="9.1640625" style="1"/>
+    <col min="13" max="18" width="9.1640625" style="1"/>
+    <col min="19" max="19" width="11.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" style="1"/>
     <col min="21" max="21" width="42.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -33092,7 +32880,7 @@
     <col min="26" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>179</v>
       </c>
@@ -33166,13 +32954,13 @@
         <v>336</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>340</v>
@@ -33183,8 +32971,11 @@
       <c r="AD1" s="1" t="s">
         <v>342</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -33258,30 +33049,33 @@
       </c>
       <c r="Y2" s="3">
         <f ca="1">ROUND(RAND()*(100-50)+50,0)</f>
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="Z2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="AC2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="AE2" s="12">
+        <v>19705</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <f>A2+1</f>
         <v>2</v>
@@ -33356,30 +33150,33 @@
       </c>
       <c r="Y3" s="3">
         <f t="shared" ref="Y3:Y58" ca="1" si="1">ROUND(RAND()*(100-50)+50,0)</f>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="Z3" s="3">
         <f t="shared" ref="Z3:AD58" ca="1" si="2">ROUND(RAND()*48+1,0)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AB3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AE3" s="13">
+        <v>19489</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>3</v>
@@ -33455,30 +33252,33 @@
       </c>
       <c r="Y4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AA4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AB4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AC4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AD4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>19333</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <f>A4+1</f>
         <v>4</v>
@@ -33551,30 +33351,33 @@
       </c>
       <c r="Y5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="Z5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AA5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AB5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AD5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>19278</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -33648,30 +33451,33 @@
       </c>
       <c r="Y6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="Z6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AA6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="AD6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>19269</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -33745,30 +33551,33 @@
       </c>
       <c r="Y7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AB7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AC7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AD7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>19233</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -33842,11 +33651,11 @@
       </c>
       <c r="Y8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA8" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -33854,18 +33663,21 @@
       </c>
       <c r="AB8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AD8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>19219</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -33939,30 +33751,33 @@
       </c>
       <c r="Y9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="AA9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AB9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AC9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AD9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>19209</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -34034,30 +33849,33 @@
       </c>
       <c r="Y10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="Z10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AA10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AB10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AD10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>19197</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -34131,30 +33949,33 @@
       </c>
       <c r="Y11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="Z11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AA11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="AB11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="AC11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AD11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>19190</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -34228,30 +34049,33 @@
       </c>
       <c r="Y12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="AA12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AB12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>19151</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -34325,19 +34149,19 @@
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AA13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -34345,10 +34169,13 @@
       </c>
       <c r="AD13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>19133</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -34420,30 +34247,33 @@
       </c>
       <c r="Y14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="AA14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AB14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AD14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>19096</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -34517,30 +34347,33 @@
       </c>
       <c r="Y15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AA15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AC15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>19094</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -34614,30 +34447,33 @@
       </c>
       <c r="Y16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="Z16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AA16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>19088</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -34711,30 +34547,33 @@
       </c>
       <c r="Y17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AA17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="AD17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>19050</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -34808,30 +34647,33 @@
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="Z18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AB18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>19045</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -34905,30 +34747,33 @@
       </c>
       <c r="Y19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>19012</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -35002,30 +34847,33 @@
       </c>
       <c r="Y20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="Z20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="AB20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="AD20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>19006</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -35098,30 +34946,33 @@
       </c>
       <c r="Y21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="Z21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AB21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="AC21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="AD21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="AE21" s="13">
+        <v>18964</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -35195,30 +35046,33 @@
       </c>
       <c r="Y22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="Z22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>18943</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -35292,30 +35146,33 @@
       </c>
       <c r="Y23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="Z23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="AA23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AC23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AD23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>18927</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -35389,19 +35246,19 @@
       </c>
       <c r="Y24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="Z24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AA24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AB24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -35409,10 +35266,13 @@
       </c>
       <c r="AD24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="AE24" s="12">
+        <v>18911</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -35486,30 +35346,33 @@
       </c>
       <c r="Y25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="Z25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="AA25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="AE25" s="13">
+        <v>18877</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -35583,30 +35446,33 @@
       </c>
       <c r="Y26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="Z26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="AA26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AB26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="AE26" s="12">
+        <v>18844</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -35678,30 +35544,33 @@
       </c>
       <c r="Y27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="Z27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AB27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="AE27" s="13">
+        <v>18816</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -35773,30 +35642,33 @@
       </c>
       <c r="Y28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Z28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AA28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AB28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="AE28" s="12">
+        <v>18790</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -35870,30 +35742,33 @@
       </c>
       <c r="Y29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Z29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="AA29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="AB29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="AD29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>18781</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -35967,30 +35842,33 @@
       </c>
       <c r="Y30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="Z30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AA30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="AC30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AD30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="AE30" s="12">
+        <v>18781</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -36066,30 +35944,33 @@
       </c>
       <c r="Y31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="Z31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="AA31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AB31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AC31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="AD31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>18781</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -36161,30 +36042,33 @@
       </c>
       <c r="Y32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="Z32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="AA32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AB32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="AC32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="AD32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="AE32" s="12">
+        <v>18773</v>
       </c>
     </row>
-    <row r="33" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -36260,7 +36144,7 @@
       </c>
       <c r="Y33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="Z33" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -36268,22 +36152,25 @@
       </c>
       <c r="AA33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="AB33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AC33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="AD33" s="3">
         <f t="shared" ca="1" si="2"/>
         <v>18</v>
       </c>
+      <c r="AE33" s="13">
+        <v>18772</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -36357,30 +36244,33 @@
       </c>
       <c r="Y34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Z34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AB34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AC34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="AD34" s="3">
         <f t="shared" ref="AD34:AD58" ca="1" si="3">ROUND(RAND()*48+1,0)</f>
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="AE34" s="12">
+        <v>18771</v>
       </c>
     </row>
-    <row r="35" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -36452,30 +36342,33 @@
       </c>
       <c r="Y35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AA35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AB35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="AC35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>18770</v>
       </c>
     </row>
-    <row r="36" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -36549,7 +36442,7 @@
       </c>
       <c r="Y36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z36" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -36557,22 +36450,25 @@
       </c>
       <c r="AA36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="AB36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="AC36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AD36" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="AE36" s="12">
+        <v>18767</v>
       </c>
     </row>
-    <row r="37" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -36644,30 +36540,33 @@
       </c>
       <c r="Y37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="Z37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AC37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AD37" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="AE37" s="13">
+        <v>18754</v>
       </c>
     </row>
-    <row r="38" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -36745,26 +36644,29 @@
       </c>
       <c r="Z38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="AA38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AB38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AC38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AD38" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="AE38" s="12">
+        <v>18736</v>
       </c>
     </row>
-    <row r="39" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -36839,30 +36741,33 @@
       </c>
       <c r="Y39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AA39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="AB39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AC39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="AD39" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>18688</v>
       </c>
     </row>
-    <row r="40" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -36937,30 +36842,33 @@
       </c>
       <c r="Y40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Z40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AA40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="AB40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AC40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="AE40" s="12">
+        <v>18643</v>
       </c>
     </row>
-    <row r="41" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -37035,30 +36943,33 @@
       </c>
       <c r="Y41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="Z41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AA41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AB41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AC41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AD41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="AE41" s="13">
+        <v>18636</v>
       </c>
     </row>
-    <row r="42" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -37133,30 +37044,33 @@
       </c>
       <c r="Y42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="AA42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AB42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="AC42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="AD42" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="AE42" s="12">
+        <v>18632</v>
       </c>
     </row>
-    <row r="43" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -37230,30 +37144,33 @@
       </c>
       <c r="Y43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="Z43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="AA43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AB43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AC43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD43" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="AE43" s="13">
+        <v>18631</v>
       </c>
     </row>
-    <row r="44" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -37325,30 +37242,33 @@
       </c>
       <c r="Y44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="Z44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AB44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD44" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="AE44" s="12">
+        <v>18631</v>
       </c>
     </row>
-    <row r="45" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -37420,30 +37340,33 @@
       </c>
       <c r="Y45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AB45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="AC45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD45" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="AE45" s="13">
+        <v>18608</v>
       </c>
     </row>
-    <row r="46" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -37517,30 +37440,33 @@
       </c>
       <c r="Y46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="Z46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AA46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="AB46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AC46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="AD46" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="AE46" s="12">
+        <v>18607</v>
       </c>
     </row>
-    <row r="47" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -37612,30 +37538,33 @@
       </c>
       <c r="Y47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="Z47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AA47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AB47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AD47" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="AE47" s="13">
+        <v>18588</v>
       </c>
     </row>
-    <row r="48" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -37709,30 +37638,33 @@
       </c>
       <c r="Y48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Z48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="AA48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AB48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="AC48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="AD48" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="AE48" s="12">
+        <v>18587</v>
       </c>
     </row>
-    <row r="49" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -37810,26 +37742,29 @@
       </c>
       <c r="Z49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AA49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AB49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AD49" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="AE49" s="13">
+        <v>18584</v>
       </c>
     </row>
-    <row r="50" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -37903,30 +37838,33 @@
       </c>
       <c r="Y50" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Z50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AA50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AB50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AC50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="AD50" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="AE50" s="12">
+        <v>18576</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -37998,30 +37936,33 @@
       </c>
       <c r="Y51" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Z51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AA51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AB51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="AC51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="AD51" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="AE51" s="13">
+        <v>18571</v>
       </c>
     </row>
-    <row r="52" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -38095,30 +38036,33 @@
       </c>
       <c r="Y52" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AA52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AB52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="AC52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="AD52" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="AE52" s="12">
+        <v>18554</v>
       </c>
     </row>
-    <row r="53" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -38192,30 +38136,33 @@
       </c>
       <c r="Y53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="Z53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AA53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AB53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AC53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AD53" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="AE53" s="13">
+        <v>18553</v>
       </c>
     </row>
-    <row r="54" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -38290,30 +38237,33 @@
       </c>
       <c r="Y54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="Z54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AA54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="AB54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AC54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="AD54" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="AE54" s="12">
+        <v>18519</v>
       </c>
     </row>
-    <row r="55" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -38385,30 +38335,33 @@
       </c>
       <c r="Y55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AB55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AC55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AD55" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="AE55" s="13">
+        <v>18479</v>
       </c>
     </row>
-    <row r="56" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -38478,30 +38431,33 @@
       </c>
       <c r="Y56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="Z56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="AB56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="AC56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AD56" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>21</v>
       </c>
+      <c r="AE56" s="12">
+        <v>18472</v>
+      </c>
     </row>
-    <row r="57" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -38573,30 +38529,33 @@
       </c>
       <c r="Y57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="Z57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="AA57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AB57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AD57" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="AE57" s="13">
+        <v>18472</v>
       </c>
     </row>
-    <row r="58" spans="1:30" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -38650,30 +38609,33 @@
       </c>
       <c r="Y58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Z58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AA58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AC58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AD58" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="AE58" s="12">
+        <v>18470</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="H59" s="8"/>
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
@@ -38682,8 +38644,9 @@
       <c r="U59"/>
       <c r="V59" s="10"/>
       <c r="W59" s="3"/>
+      <c r="AE59" s="13"/>
     </row>
-    <row r="60" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -38696,8 +38659,9 @@
       <c r="T60"/>
       <c r="U60"/>
       <c r="V60"/>
+      <c r="AE60" s="12"/>
     </row>
-    <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -38710,8 +38674,9 @@
       <c r="T61"/>
       <c r="U61"/>
       <c r="V61"/>
+      <c r="AE61" s="13"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -38720,8 +38685,9 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
+      <c r="AE62" s="12"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -38730,8 +38696,9 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
+      <c r="AE63" s="13"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -38740,8 +38707,9 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
+      <c r="AE64" s="12"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -38750,8 +38718,9 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
+      <c r="AE65" s="13"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -38760,8 +38729,9 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
+      <c r="AE66" s="12"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -38770,8 +38740,9 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
+      <c r="AE67" s="13"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -38780,8 +38751,9 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
+      <c r="AE68" s="12"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -38791,7 +38763,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -38800,7 +38772,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -38810,7 +38782,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -38820,7 +38792,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -38830,7 +38802,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -38840,7 +38812,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -38850,7 +38822,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -38860,7 +38832,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -38870,7 +38842,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -38880,7 +38852,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -38890,7 +38862,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -39471,3078 +39443,50 @@
   </sheetData>
   <autoFilter ref="A1:L59" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="39" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B42">
-    <cfRule type="duplicateValues" dxfId="38" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54 B4">
-    <cfRule type="duplicateValues" dxfId="37" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B70">
-    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:G21 I21">
-    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:G42 I39:I42">
-    <cfRule type="duplicateValues" dxfId="32" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:G45 I45">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:G54 C4:G4 I4 I54">
-    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:I140">
-    <cfRule type="duplicateValues" dxfId="27" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141:I1048576 C22:G44 C1:I2 C46:G58 I46:I58 C3:G20 I3:I20 I22:I44 H3:H59">
-    <cfRule type="duplicateValues" dxfId="26" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141:I1048576 C1:I2 C22:G38 C43:G44 C46:G53 C5:G20 C55:G58 I55:I58 I5:I20 I46:I53 I43:I44 I22:I38 C3:G3 I3 H3:H59">
-    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141:I1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60:J69 B1:B3 B5:B20 B22:B38 B43:B53 B73:B1048576 J73:J108 B55:B58">
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.15748031496062992" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="20" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B4B8EF-2B0A-094D-B73F-4EEAA25384B1}">
-  <dimension ref="A1:G115"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C2" s="8">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="F2" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8">
-        <f>ROUND(AVERAGE(C2:F2) * 2, 0) /2</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:G58" si="0">ROUND(AVERAGE(C3:F3) * 2, 0) /2</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4">
-        <v>4</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>3</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C11" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C13" s="4">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>3</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="D16" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E16" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C17" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D17" s="4">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="F17" s="4">
-        <v>5</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3</v>
-      </c>
-      <c r="D18" s="4">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F18" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3</v>
-      </c>
-      <c r="F19" s="4">
-        <v>3</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C20" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D20" s="4">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4">
-        <v>3</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="E21" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F21" s="4">
-        <v>5</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-      <c r="D22" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C23" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4">
-        <v>2</v>
-      </c>
-      <c r="G24" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C25" s="4">
-        <v>3</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G25" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C26" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D26" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E26" s="4">
-        <v>4</v>
-      </c>
-      <c r="F26" s="4">
-        <v>4</v>
-      </c>
-      <c r="G26" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C27" s="4">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4">
-        <v>5</v>
-      </c>
-      <c r="E27" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F27" s="4">
-        <v>4</v>
-      </c>
-      <c r="G27" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C28" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D28" s="4">
-        <v>5</v>
-      </c>
-      <c r="E28" s="4">
-        <v>3</v>
-      </c>
-      <c r="F28" s="4">
-        <v>3</v>
-      </c>
-      <c r="G28" s="8">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C29" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D29" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E29" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F29" s="4">
-        <v>4</v>
-      </c>
-      <c r="G29" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C30" s="4">
-        <v>3</v>
-      </c>
-      <c r="D30" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="E30" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F30" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G30" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C31" s="4">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4">
-        <v>3</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C32" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D32" s="4">
-        <v>4</v>
-      </c>
-      <c r="E32" s="4">
-        <v>3</v>
-      </c>
-      <c r="F32" s="4">
-        <v>3</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C34" s="4">
-        <v>4</v>
-      </c>
-      <c r="D34" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E34" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="F34" s="4">
-        <v>5</v>
-      </c>
-      <c r="G34" s="8">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C35" s="4">
-        <v>2</v>
-      </c>
-      <c r="D35" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F35" s="4">
-        <v>3</v>
-      </c>
-      <c r="G35" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C36" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D36" s="4">
-        <v>4</v>
-      </c>
-      <c r="E36" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F36" s="4">
-        <v>5</v>
-      </c>
-      <c r="G36" s="8">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C37" s="4">
-        <v>2</v>
-      </c>
-      <c r="D37" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E37" s="4">
-        <v>3</v>
-      </c>
-      <c r="F37" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G37" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C38" s="4">
-        <v>3</v>
-      </c>
-      <c r="D38" s="4">
-        <v>4</v>
-      </c>
-      <c r="E38" s="4">
-        <v>3</v>
-      </c>
-      <c r="F38" s="4">
-        <v>3</v>
-      </c>
-      <c r="G38" s="8">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C39" s="4">
-        <v>3</v>
-      </c>
-      <c r="D39" s="4">
-        <v>5</v>
-      </c>
-      <c r="E39" s="4">
-        <v>3</v>
-      </c>
-      <c r="F39" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G39" s="8">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C40" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D40" s="4">
-        <v>4</v>
-      </c>
-      <c r="E40" s="4">
-        <v>4</v>
-      </c>
-      <c r="F40" s="4">
-        <v>4</v>
-      </c>
-      <c r="G40" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C41" s="4">
-        <v>3</v>
-      </c>
-      <c r="D41" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="E41" s="4">
-        <v>4</v>
-      </c>
-      <c r="F41" s="4">
-        <v>4</v>
-      </c>
-      <c r="G41" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C42" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D42" s="4">
-        <v>5</v>
-      </c>
-      <c r="E42" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F42" s="4">
-        <v>4</v>
-      </c>
-      <c r="G42" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C43" s="4">
-        <v>3</v>
-      </c>
-      <c r="D43" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="E43" s="4">
-        <v>3</v>
-      </c>
-      <c r="F43" s="4">
-        <v>3</v>
-      </c>
-      <c r="G43" s="8">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C44" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D44" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="E44" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F44" s="4">
-        <v>4</v>
-      </c>
-      <c r="G44" s="8">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C45" s="4">
-        <v>4</v>
-      </c>
-      <c r="D45" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E45" s="4">
-        <v>3</v>
-      </c>
-      <c r="F45" s="4">
-        <v>4</v>
-      </c>
-      <c r="G45" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C46" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D46" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E46" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F46" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G46" s="8">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C47" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D47" s="4">
-        <v>5</v>
-      </c>
-      <c r="E47" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F47" s="4">
-        <v>5</v>
-      </c>
-      <c r="G47" s="8">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C48" s="4">
-        <v>2</v>
-      </c>
-      <c r="D48" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E48" s="4">
-        <v>2</v>
-      </c>
-      <c r="F48" s="4">
-        <v>2</v>
-      </c>
-      <c r="G48" s="8">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C49" s="4">
-        <v>3</v>
-      </c>
-      <c r="D49" s="4">
-        <v>5</v>
-      </c>
-      <c r="E49" s="4">
-        <v>4</v>
-      </c>
-      <c r="F49" s="4">
-        <v>5</v>
-      </c>
-      <c r="G49" s="8">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C50" s="4">
-        <v>4</v>
-      </c>
-      <c r="D50" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E50" s="4">
-        <v>4</v>
-      </c>
-      <c r="F50" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G50" s="8">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C51" s="4">
-        <v>3</v>
-      </c>
-      <c r="D51" s="4">
-        <v>3</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F51" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G51" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E52" s="4">
-        <v>3</v>
-      </c>
-      <c r="F52" s="4">
-        <v>4</v>
-      </c>
-      <c r="G52" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C53" s="4">
-        <v>2</v>
-      </c>
-      <c r="D53" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E53" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F53" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G53" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0</v>
-      </c>
-      <c r="D54" s="4">
-        <v>3</v>
-      </c>
-      <c r="E54" s="4">
-        <v>2</v>
-      </c>
-      <c r="F54" s="4">
-        <v>2</v>
-      </c>
-      <c r="G54" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C55" s="4">
-        <v>3</v>
-      </c>
-      <c r="D55" s="4">
-        <v>3</v>
-      </c>
-      <c r="E55" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F55" s="4">
-        <v>2</v>
-      </c>
-      <c r="G55" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C56" s="4">
-        <v>3</v>
-      </c>
-      <c r="D56" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2</v>
-      </c>
-      <c r="F56" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G56" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C57" s="4">
-        <v>2</v>
-      </c>
-      <c r="D57" s="4">
-        <v>3</v>
-      </c>
-      <c r="E57" s="4">
-        <v>2</v>
-      </c>
-      <c r="F57" s="4">
-        <v>3</v>
-      </c>
-      <c r="G57" s="8">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C58" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D58" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>4</v>
-      </c>
-      <c r="G58" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C59" s="8">
-        <v>6</v>
-      </c>
-      <c r="D59" s="4">
-        <v>7</v>
-      </c>
-      <c r="E59" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="F59" s="4">
-        <v>5</v>
-      </c>
-      <c r="G59" s="8">
-        <f>ROUND(AVERAGE(C59:F59) * 2, 0) /2</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C60" s="8">
-        <v>2</v>
-      </c>
-      <c r="D60" s="4">
-        <v>2</v>
-      </c>
-      <c r="E60" s="4">
-        <v>3</v>
-      </c>
-      <c r="F60" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G60" s="8">
-        <f t="shared" ref="G60:G115" si="1">ROUND(AVERAGE(C60:F60) * 2, 0) /2</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C61" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D61" s="4">
-        <v>4</v>
-      </c>
-      <c r="E61" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F61" s="4">
-        <v>4</v>
-      </c>
-      <c r="G61" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C62" s="8">
-        <v>3</v>
-      </c>
-      <c r="D62" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E62" s="4">
-        <v>4</v>
-      </c>
-      <c r="F62" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G62" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4">
-        <v>0</v>
-      </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C64" s="4">
-        <v>4</v>
-      </c>
-      <c r="D64" s="4">
-        <v>4</v>
-      </c>
-      <c r="E64" s="4">
-        <v>4</v>
-      </c>
-      <c r="F64" s="4">
-        <v>4</v>
-      </c>
-      <c r="G64" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C65" s="4">
-        <v>2</v>
-      </c>
-      <c r="D65" s="4">
-        <v>4</v>
-      </c>
-      <c r="E65" s="4">
-        <v>2</v>
-      </c>
-      <c r="F65" s="4">
-        <v>3</v>
-      </c>
-      <c r="G65" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0</v>
-      </c>
-      <c r="D66" s="4">
-        <v>0</v>
-      </c>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C67" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D67" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="E67" s="4">
-        <v>2</v>
-      </c>
-      <c r="F67" s="4">
-        <v>3</v>
-      </c>
-      <c r="G67" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C68" s="8">
-        <f t="shared" ref="C68:F68" si="2">C11+0.5</f>
-        <v>4</v>
-      </c>
-      <c r="D68" s="8">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="E68" s="8">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="F68" s="8">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="G68" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C69" s="8">
-        <f t="shared" ref="C69:F69" si="3">C12+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="D69" s="8">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="E69" s="8">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="F69" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G69" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C70" s="8">
-        <f t="shared" ref="C70:F70" si="4">C13+0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="D70" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="E70" s="8">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="F70" s="8">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-      <c r="G70" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C71" s="8">
-        <f t="shared" ref="C71:F71" si="5">C14+0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="D71" s="8">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="E71" s="8">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-      <c r="F71" s="8">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-      <c r="G71" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C72" s="8">
-        <f t="shared" ref="C72:F72" si="6">C15+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="D72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="E72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="F72" s="8">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="G72" s="8">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C73" s="8">
-        <f t="shared" ref="C73:F73" si="7">C16+0.5</f>
-        <v>5</v>
-      </c>
-      <c r="D73" s="8">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="E73" s="8">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="F73" s="8">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="G73" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C74" s="8">
-        <f t="shared" ref="C74:F74" si="8">C17+0.5</f>
-        <v>4</v>
-      </c>
-      <c r="D74" s="8">
-        <f t="shared" si="8"/>
-        <v>6.5</v>
-      </c>
-      <c r="E74" s="8">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="F74" s="8">
-        <f t="shared" si="8"/>
-        <v>5.5</v>
-      </c>
-      <c r="G74" s="8">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C75" s="8">
-        <f t="shared" ref="C75:F75" si="9">C18+0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="D75" s="8">
-        <f t="shared" si="9"/>
-        <v>5.5</v>
-      </c>
-      <c r="E75" s="8">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="F75" s="8">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="G75" s="8">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C76" s="8">
-        <f t="shared" ref="C76:F76" si="10">C19+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="D76" s="8">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="E76" s="8">
-        <f t="shared" si="10"/>
-        <v>3.5</v>
-      </c>
-      <c r="F76" s="8">
-        <f t="shared" si="10"/>
-        <v>3.5</v>
-      </c>
-      <c r="G76" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C77" s="8">
-        <f t="shared" ref="C77:F77" si="11">C20+0.5</f>
-        <v>4</v>
-      </c>
-      <c r="D77" s="8">
-        <f t="shared" si="11"/>
-        <v>4.5</v>
-      </c>
-      <c r="E77" s="8">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
-      </c>
-      <c r="F77" s="8">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
-      </c>
-      <c r="G77" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C78" s="8">
-        <f t="shared" ref="C78:F78" si="12">C21+0.5</f>
-        <v>5</v>
-      </c>
-      <c r="D78" s="8">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="E78" s="8">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="F78" s="8">
-        <f t="shared" si="12"/>
-        <v>5.5</v>
-      </c>
-      <c r="G78" s="8">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C79" s="8">
-        <f t="shared" ref="C79:F79" si="13">C22+0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="D79" s="8">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="E79" s="8">
-        <f t="shared" si="13"/>
-        <v>4.5</v>
-      </c>
-      <c r="F79" s="8">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="G79" s="8">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C80" s="8">
-        <f t="shared" ref="C80:F80" si="14">C23+0.5</f>
-        <v>4</v>
-      </c>
-      <c r="D80" s="8">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="E80" s="8">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="F80" s="8">
-        <f t="shared" si="14"/>
-        <v>2.5</v>
-      </c>
-      <c r="G80" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C81" s="8">
-        <f t="shared" ref="C81:F81" si="15">C24+0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="D81" s="8">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="E81" s="8">
-        <f t="shared" si="15"/>
-        <v>2.5</v>
-      </c>
-      <c r="F81" s="8">
-        <f t="shared" si="15"/>
-        <v>2.5</v>
-      </c>
-      <c r="G81" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C82" s="8">
-        <f t="shared" ref="C82:F82" si="16">C25+0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="D82" s="8">
-        <f t="shared" si="16"/>
-        <v>3.5</v>
-      </c>
-      <c r="E82" s="8">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="F82" s="8">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="G82" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C83" s="8">
-        <f t="shared" ref="C83:F83" si="17">C26+0.5</f>
-        <v>4</v>
-      </c>
-      <c r="D83" s="8">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="E83" s="8">
-        <f t="shared" si="17"/>
-        <v>4.5</v>
-      </c>
-      <c r="F83" s="8">
-        <f t="shared" si="17"/>
-        <v>4.5</v>
-      </c>
-      <c r="G83" s="8">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C84" s="8">
-        <f t="shared" ref="C84:F84" si="18">C27+0.5</f>
-        <v>4.5</v>
-      </c>
-      <c r="D84" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5</v>
-      </c>
-      <c r="E84" s="8">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="F84" s="8">
-        <f t="shared" si="18"/>
-        <v>4.5</v>
-      </c>
-      <c r="G84" s="8">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C85" s="8">
-        <f t="shared" ref="C85:F85" si="19">C28+0.5</f>
-        <v>4</v>
-      </c>
-      <c r="D85" s="8">
-        <f t="shared" si="19"/>
-        <v>5.5</v>
-      </c>
-      <c r="E85" s="8">
-        <f t="shared" si="19"/>
-        <v>3.5</v>
-      </c>
-      <c r="F85" s="8">
-        <f t="shared" si="19"/>
-        <v>3.5</v>
-      </c>
-      <c r="G85" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C86" s="8">
-        <f t="shared" ref="C86:F86" si="20">C29+0.5</f>
-        <v>4</v>
-      </c>
-      <c r="D86" s="8">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="E86" s="8">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="F86" s="8">
-        <f t="shared" si="20"/>
-        <v>4.5</v>
-      </c>
-      <c r="G86" s="8">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C87" s="8">
-        <f t="shared" ref="C87:F87" si="21">C30+0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="D87" s="8">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="E87" s="8">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="F87" s="8">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="G87" s="8">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C88" s="8">
-        <f t="shared" ref="C88:F88" si="22">C31+0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="D88" s="8">
-        <f t="shared" si="22"/>
-        <v>3.5</v>
-      </c>
-      <c r="E88" s="8">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="F88" s="8">
-        <f t="shared" si="22"/>
-        <v>0.5</v>
-      </c>
-      <c r="G88" s="8">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C89" s="8">
-        <f t="shared" ref="C89:F89" si="23">C32+0.5</f>
-        <v>4</v>
-      </c>
-      <c r="D89" s="8">
-        <f t="shared" si="23"/>
-        <v>4.5</v>
-      </c>
-      <c r="E89" s="8">
-        <f t="shared" si="23"/>
-        <v>3.5</v>
-      </c>
-      <c r="F89" s="8">
-        <f t="shared" si="23"/>
-        <v>3.5</v>
-      </c>
-      <c r="G89" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C90" s="8">
-        <f t="shared" ref="C90:F90" si="24">C33+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="D90" s="8">
-        <f t="shared" si="24"/>
-        <v>0.5</v>
-      </c>
-      <c r="E90" s="8">
-        <f t="shared" si="24"/>
-        <v>0.5</v>
-      </c>
-      <c r="F90" s="8">
-        <f t="shared" si="24"/>
-        <v>0.5</v>
-      </c>
-      <c r="G90" s="8">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C91" s="8">
-        <f>C34-0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="D91" s="8">
-        <f t="shared" ref="D91:F91" si="25">D34-0.5</f>
-        <v>6</v>
-      </c>
-      <c r="E91" s="8">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="F91" s="8">
-        <f t="shared" si="25"/>
-        <v>4.5</v>
-      </c>
-      <c r="G91" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C92" s="8">
-        <f t="shared" ref="C92:F92" si="26">C35-0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="D92" s="8">
-        <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="E92" s="8">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="F92" s="8">
-        <f t="shared" si="26"/>
-        <v>2.5</v>
-      </c>
-      <c r="G92" s="8">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C93" s="8">
-        <f t="shared" ref="C93:F93" si="27">C36-0.5</f>
-        <v>3</v>
-      </c>
-      <c r="D93" s="8">
-        <f t="shared" si="27"/>
-        <v>3.5</v>
-      </c>
-      <c r="E93" s="8">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="F93" s="8">
-        <f t="shared" si="27"/>
-        <v>4.5</v>
-      </c>
-      <c r="G93" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C94" s="8">
-        <f t="shared" ref="C94:F94" si="28">C37-0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="D94" s="8">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="E94" s="8">
-        <f t="shared" si="28"/>
-        <v>2.5</v>
-      </c>
-      <c r="F94" s="8">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="G94" s="8">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C95" s="8">
-        <f t="shared" ref="C95:F95" si="29">C38-0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="D95" s="8">
-        <f t="shared" si="29"/>
-        <v>3.5</v>
-      </c>
-      <c r="E95" s="8">
-        <f t="shared" si="29"/>
-        <v>2.5</v>
-      </c>
-      <c r="F95" s="8">
-        <f t="shared" si="29"/>
-        <v>2.5</v>
-      </c>
-      <c r="G95" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C96" s="8">
-        <f t="shared" ref="C96:F96" si="30">C39-0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="D96" s="8">
-        <f t="shared" si="30"/>
-        <v>4.5</v>
-      </c>
-      <c r="E96" s="8">
-        <f t="shared" si="30"/>
-        <v>2.5</v>
-      </c>
-      <c r="F96" s="8">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="G96" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C97" s="8">
-        <f t="shared" ref="C97:F97" si="31">C40-0.5</f>
-        <v>3</v>
-      </c>
-      <c r="D97" s="8">
-        <f t="shared" si="31"/>
-        <v>3.5</v>
-      </c>
-      <c r="E97" s="8">
-        <f t="shared" si="31"/>
-        <v>3.5</v>
-      </c>
-      <c r="F97" s="8">
-        <f t="shared" si="31"/>
-        <v>3.5</v>
-      </c>
-      <c r="G97" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C98" s="8">
-        <f t="shared" ref="C98:F98" si="32">C41-0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="D98" s="8">
-        <f t="shared" si="32"/>
-        <v>5</v>
-      </c>
-      <c r="E98" s="8">
-        <f t="shared" si="32"/>
-        <v>3.5</v>
-      </c>
-      <c r="F98" s="8">
-        <f t="shared" si="32"/>
-        <v>3.5</v>
-      </c>
-      <c r="G98" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C99" s="8">
-        <f t="shared" ref="C99:F99" si="33">C42-0.5</f>
-        <v>3</v>
-      </c>
-      <c r="D99" s="8">
-        <f t="shared" si="33"/>
-        <v>4.5</v>
-      </c>
-      <c r="E99" s="8">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="F99" s="8">
-        <f t="shared" si="33"/>
-        <v>3.5</v>
-      </c>
-      <c r="G99" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C100" s="8">
-        <f t="shared" ref="C100:F100" si="34">C43-0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="D100" s="8">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="E100" s="8">
-        <f t="shared" si="34"/>
-        <v>2.5</v>
-      </c>
-      <c r="F100" s="8">
-        <f t="shared" si="34"/>
-        <v>2.5</v>
-      </c>
-      <c r="G100" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C101" s="8">
-        <f t="shared" ref="C101:F101" si="35">C44-0.5</f>
-        <v>3</v>
-      </c>
-      <c r="D101" s="8">
-        <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="E101" s="8">
-        <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="F101" s="8">
-        <f t="shared" si="35"/>
-        <v>3.5</v>
-      </c>
-      <c r="G101" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C102" s="8">
-        <f t="shared" ref="C102:F102" si="36">C45-0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="D102" s="8">
-        <f t="shared" si="36"/>
-        <v>4</v>
-      </c>
-      <c r="E102" s="8">
-        <f t="shared" si="36"/>
-        <v>2.5</v>
-      </c>
-      <c r="F102" s="8">
-        <f t="shared" si="36"/>
-        <v>3.5</v>
-      </c>
-      <c r="G102" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C103" s="8">
-        <f t="shared" ref="C103:F103" si="37">C46-0.5</f>
-        <v>3</v>
-      </c>
-      <c r="D103" s="8">
-        <f t="shared" si="37"/>
-        <v>3</v>
-      </c>
-      <c r="E103" s="8">
-        <f t="shared" si="37"/>
-        <v>3</v>
-      </c>
-      <c r="F103" s="8">
-        <f t="shared" si="37"/>
-        <v>3</v>
-      </c>
-      <c r="G103" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C104" s="8">
-        <f t="shared" ref="C104:F104" si="38">C47-0.5</f>
-        <v>3</v>
-      </c>
-      <c r="D104" s="8">
-        <f t="shared" si="38"/>
-        <v>4.5</v>
-      </c>
-      <c r="E104" s="8">
-        <f t="shared" si="38"/>
-        <v>3</v>
-      </c>
-      <c r="F104" s="8">
-        <f t="shared" si="38"/>
-        <v>4.5</v>
-      </c>
-      <c r="G104" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C105" s="8">
-        <f t="shared" ref="C105:F105" si="39">C48-0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="D105" s="8">
-        <f t="shared" si="39"/>
-        <v>3</v>
-      </c>
-      <c r="E105" s="8">
-        <f t="shared" si="39"/>
-        <v>1.5</v>
-      </c>
-      <c r="F105" s="8">
-        <f t="shared" si="39"/>
-        <v>1.5</v>
-      </c>
-      <c r="G105" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C106" s="8">
-        <f t="shared" ref="C106:F106" si="40">C49-0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="D106" s="8">
-        <f t="shared" si="40"/>
-        <v>4.5</v>
-      </c>
-      <c r="E106" s="8">
-        <f t="shared" si="40"/>
-        <v>3.5</v>
-      </c>
-      <c r="F106" s="8">
-        <f t="shared" si="40"/>
-        <v>4.5</v>
-      </c>
-      <c r="G106" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C107" s="8">
-        <f t="shared" ref="C107:F107" si="41">C50-0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="D107" s="8">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-      <c r="E107" s="8">
-        <f t="shared" si="41"/>
-        <v>3.5</v>
-      </c>
-      <c r="F107" s="8">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-      <c r="G107" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C108" s="8">
-        <f t="shared" ref="C108:F108" si="42">C51-0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="D108" s="8">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
-      </c>
-      <c r="E108" s="8">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="F108" s="8">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="G108" s="8">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C109" s="8">
-        <f>C52+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="D109" s="8">
-        <f t="shared" ref="C109:F109" si="43">D52-0.5</f>
-        <v>4</v>
-      </c>
-      <c r="E109" s="8">
-        <f t="shared" si="43"/>
-        <v>2.5</v>
-      </c>
-      <c r="F109" s="8">
-        <f t="shared" si="43"/>
-        <v>3.5</v>
-      </c>
-      <c r="G109" s="8">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C110" s="8">
-        <f t="shared" ref="C110:F110" si="44">C53+0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="D110" s="8">
-        <f t="shared" si="44"/>
-        <v>5</v>
-      </c>
-      <c r="E110" s="8">
-        <f t="shared" si="44"/>
-        <v>3</v>
-      </c>
-      <c r="F110" s="8">
-        <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="G110" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C111" s="8">
-        <f t="shared" ref="C111:F111" si="45">C54+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="D111" s="8">
-        <f t="shared" si="45"/>
-        <v>3.5</v>
-      </c>
-      <c r="E111" s="8">
-        <f t="shared" si="45"/>
-        <v>2.5</v>
-      </c>
-      <c r="F111" s="8">
-        <f t="shared" si="45"/>
-        <v>2.5</v>
-      </c>
-      <c r="G111" s="8">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C112" s="8">
-        <f t="shared" ref="C112:F112" si="46">C55+0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="D112" s="8">
-        <f t="shared" si="46"/>
-        <v>3.5</v>
-      </c>
-      <c r="E112" s="8">
-        <f t="shared" si="46"/>
-        <v>4</v>
-      </c>
-      <c r="F112" s="8">
-        <f t="shared" si="46"/>
-        <v>2.5</v>
-      </c>
-      <c r="G112" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C113" s="8">
-        <f t="shared" ref="C113:F113" si="47">C56+0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="D113" s="8">
-        <f t="shared" si="47"/>
-        <v>5</v>
-      </c>
-      <c r="E113" s="8">
-        <f t="shared" si="47"/>
-        <v>2.5</v>
-      </c>
-      <c r="F113" s="8">
-        <f t="shared" si="47"/>
-        <v>3</v>
-      </c>
-      <c r="G113" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C114" s="8">
-        <f t="shared" ref="C114:F114" si="48">C57+0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="D114" s="8">
-        <f t="shared" si="48"/>
-        <v>3.5</v>
-      </c>
-      <c r="E114" s="8">
-        <f t="shared" si="48"/>
-        <v>2.5</v>
-      </c>
-      <c r="F114" s="8">
-        <f t="shared" si="48"/>
-        <v>3.5</v>
-      </c>
-      <c r="G114" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C115" s="8">
-        <f t="shared" ref="C115:F115" si="49">C58+0.5</f>
-        <v>4</v>
-      </c>
-      <c r="D115" s="8">
-        <f t="shared" si="49"/>
-        <v>5</v>
-      </c>
-      <c r="E115" s="8">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="F115" s="8">
-        <f t="shared" si="49"/>
-        <v>4.5</v>
-      </c>
-      <c r="G115" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="A21 C21:F21">
-    <cfRule type="duplicateValues" dxfId="22" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A42 C39:F42">
-    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45 C45:F45">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54 A4 C4:F4 C54:F54">
-    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A44 A1:G2 A46:A58 A3:A20 G3:G58 C3:F20 C46:F58 C22:F44 B3:B58">
-    <cfRule type="duplicateValues" dxfId="14" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G2 A22:A38 A43:A44 A46:A53 A5:A20 A55:A58 A3 G3:G58 C3:F3 C55:F58 C5:F20 C46:F53 C43:F44 C22:F38 B3:B58">
-    <cfRule type="duplicateValues" dxfId="13" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:A99">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A111 A61">
-    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A101 A103:A115 A60:A77 A59:B59 B68:G115 B60:B67 G59:G67">
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A95 A100:A101 A103:A110 A62:A77 A112:A115 A60 A59:B59 B68:G115 B60:B67 G59:G67">
-    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:F61">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:F67">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:F60 C62:F67">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="19" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sol_score_update.xlsx
+++ b/sol_score_update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phamtanthanh/Downloads/Automate_Office_data/SOL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80303E82-DDA6-E64B-ACBD-5E3CF15E8C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826501AD-E53A-924C-8EB2-C8BDAA69F07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="51200" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="500" windowWidth="49640" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File gui CBNV" sheetId="1" r:id="rId1"/>
@@ -44,15 +44,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="342">
   <si>
     <t>Trưởng BP Admin</t>
   </si>
   <si>
     <t>Khối Thương Mại Miền Nam</t>
-  </si>
-  <si>
-    <t>Võ Trương Thụy Kiều Thương</t>
   </si>
   <si>
     <t>SOL000089</t>
@@ -64,9 +61,6 @@
     <t>Chuyên viên</t>
   </si>
   <si>
-    <t>Lê Thị Cúc</t>
-  </si>
-  <si>
     <t>SOL000097</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
   </si>
   <si>
     <t>Phòng Thiết bị MN</t>
-  </si>
-  <si>
-    <t>Nguyễn Xuân Trường</t>
   </si>
   <si>
     <t>SOL000390</t>
@@ -88,9 +79,6 @@
     <t>Chuyên viên Chính</t>
   </si>
   <si>
-    <t>Trần Thanh Huyền</t>
-  </si>
-  <si>
     <t>SOL000172</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
   </si>
   <si>
     <t>Phó phòng</t>
-  </si>
-  <si>
-    <t>Đỗ Lê Nguyên Sơn</t>
   </si>
   <si>
     <t>SOL000077</t>
@@ -115,16 +100,10 @@
     <t>Phòng Kinh tế Miền Nam</t>
   </si>
   <si>
-    <t>Lê Thị Hoa</t>
-  </si>
-  <si>
     <t>SOL000019</t>
   </si>
   <si>
     <t>quang.le@solenc.vn</t>
-  </si>
-  <si>
-    <t>Lê Trọng Quảng</t>
   </si>
   <si>
     <t>SOL000479</t>
@@ -133,16 +112,10 @@
     <t>binh.phan@solenc.vn</t>
   </si>
   <si>
-    <t>Phan Thị Bình</t>
-  </si>
-  <si>
     <t>SOL000013</t>
   </si>
   <si>
     <t>huy.nguyendinh@solenc.vn</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Huy</t>
   </si>
   <si>
     <t>SOL000016</t>
@@ -154,9 +127,6 @@
     <t>ĐH Văn Lang - GD3</t>
   </si>
   <si>
-    <t>Nguyễn Đức Nhật</t>
-  </si>
-  <si>
     <t>SOL000084</t>
   </si>
   <si>
@@ -164,9 +134,6 @@
   </si>
   <si>
     <t>Phòng Pháp chế - Hệ thống</t>
-  </si>
-  <si>
-    <t>Trần Thị Xuân Hồng</t>
   </si>
   <si>
     <t>SOL000807</t>
@@ -178,16 +145,10 @@
     <t>Khối Cơ điện - Bộ phận BIM</t>
   </si>
   <si>
-    <t>Vũ Phạm Tuấn Kiệt</t>
-  </si>
-  <si>
     <t>SOL000485</t>
   </si>
   <si>
     <t>Trưởng bộ phận</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Đạt</t>
   </si>
   <si>
     <t>SOL000039</t>
@@ -196,19 +157,10 @@
     <t xml:space="preserve">Khối Cơ điện - Bộ Phận Đấu thầu </t>
   </si>
   <si>
-    <t>Phan Thị Thu Thảo</t>
-  </si>
-  <si>
     <t>SOL000558</t>
   </si>
   <si>
-    <t>Nguyễn Trúc Kim Uyên</t>
-  </si>
-  <si>
     <t>SOL000038</t>
-  </si>
-  <si>
-    <t>Nguyễn Phước Bình</t>
   </si>
   <si>
     <t>SOL000544</t>
@@ -217,25 +169,16 @@
     <t>sang.doan@solenc.vn</t>
   </si>
   <si>
-    <t>Đoàn Tấn Sang</t>
-  </si>
-  <si>
     <t>SOL000740</t>
   </si>
   <si>
     <t>vu.nguyen@solenc.vn</t>
   </si>
   <si>
-    <t>Nguyễn Phước Vương Vũ</t>
-  </si>
-  <si>
     <t>SOL000041</t>
   </si>
   <si>
     <t>thinh.pham@solenc.vn</t>
-  </si>
-  <si>
-    <t>Phạm Quốc Thịnh</t>
   </si>
   <si>
     <t>SOL000655</t>
@@ -247,9 +190,6 @@
     <t>Phòng Nhân sự MN</t>
   </si>
   <si>
-    <t>Nguyễn Trần Phương Thủy</t>
-  </si>
-  <si>
     <t>SOL000729</t>
   </si>
   <si>
@@ -257,9 +197,6 @@
   </si>
   <si>
     <t>Trưởng Phòng Nhân sự</t>
-  </si>
-  <si>
-    <t>Lê Quang Huy</t>
   </si>
   <si>
     <t>SOL000083</t>
@@ -271,9 +208,6 @@
     <t>Phòng Tổng hợp - BP IT MN</t>
   </si>
   <si>
-    <t>Bùi Minh Tuấn</t>
-  </si>
-  <si>
     <t>SOL000053</t>
   </si>
   <si>
@@ -283,25 +217,16 @@
     <t>Phòng Tổng hợp - BP Hành chính MN</t>
   </si>
   <si>
-    <t>Huỳnh Nhã Trúc</t>
-  </si>
-  <si>
     <t>SOL000051</t>
   </si>
   <si>
     <t>dieu.tran@solenc.vn</t>
   </si>
   <si>
-    <t>Trần Thị Ngọc Diêu</t>
-  </si>
-  <si>
     <t>SOL000057</t>
   </si>
   <si>
     <t>dinh.nguyen@solenc.vn</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Dinh</t>
   </si>
   <si>
     <t>SOL000535</t>
@@ -313,16 +238,10 @@
     <t>Phòng Tài chính - Kế toán</t>
   </si>
   <si>
-    <t>Nguyễn Thị Thùy Trang</t>
-  </si>
-  <si>
     <t>SOL000009</t>
   </si>
   <si>
     <t>quan.pham@solenc.vn</t>
-  </si>
-  <si>
-    <t>Phạm Hồng Quân</t>
   </si>
   <si>
     <t>SOL000010</t>
@@ -334,16 +253,10 @@
     <t>Khối Kỹ thuật Miền Nam</t>
   </si>
   <si>
-    <t>Đào Tiến Sang</t>
-  </si>
-  <si>
     <t>SOL000510</t>
   </si>
   <si>
     <t>tuan.leanh@solenc.vn</t>
-  </si>
-  <si>
-    <t>Lê Anh Tuấn</t>
   </si>
   <si>
     <t>SOL000163</t>
@@ -352,16 +265,10 @@
     <t>thi.le@solenc.vn</t>
   </si>
   <si>
-    <t>Lê Nguyễn Đình Thi</t>
-  </si>
-  <si>
     <t>SOL000329</t>
   </si>
   <si>
     <t>thaonhi.nguyen@solenc.vn</t>
-  </si>
-  <si>
-    <t>Nguyễn Trần Thảo Nhi</t>
   </si>
   <si>
     <t>SOL000484</t>
@@ -370,16 +277,10 @@
     <t>Huan.bui@solenc.vn</t>
   </si>
   <si>
-    <t>Bùi Văn Huân</t>
-  </si>
-  <si>
     <t>SOL000354</t>
   </si>
   <si>
     <t>thach.nguyen@solenc.vn</t>
-  </si>
-  <si>
-    <t>Nguyễn Đỗ Thạch</t>
   </si>
   <si>
     <t>SOL000076</t>
@@ -388,16 +289,10 @@
     <t>Khối Đấu thầu - Thiết kế</t>
   </si>
   <si>
-    <t>Nguyễn Thanh Duy</t>
-  </si>
-  <si>
     <t>SOL000036</t>
   </si>
   <si>
     <t>hong.nguyen@solenc.vn</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Kim Hồng</t>
   </si>
   <si>
     <t>SOL000029</t>
@@ -406,16 +301,10 @@
     <t>thuy.nguyenvan@solenc.vn</t>
   </si>
   <si>
-    <t>Nguyễn Văn Thụy</t>
-  </si>
-  <si>
     <t>SOL000028</t>
   </si>
   <si>
     <t>thong.nguyen@solenc.vn</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Thông</t>
   </si>
   <si>
     <t>SOL000126</t>
@@ -424,16 +313,10 @@
     <t>thu.tran@solenc.vn</t>
   </si>
   <si>
-    <t>Trần Thị Minh Thư</t>
-  </si>
-  <si>
     <t>SOL000486</t>
   </si>
   <si>
     <t>bao.to@solenc.vn</t>
-  </si>
-  <si>
-    <t>Tô Gia Bảo</t>
   </si>
   <si>
     <t>SOL000733</t>
@@ -442,16 +325,10 @@
     <t>tien.hoang@solenc.vn</t>
   </si>
   <si>
-    <t>Hoàng Ngọc Tiến</t>
-  </si>
-  <si>
     <t>SOL000030</t>
   </si>
   <si>
     <t>quan.vo@solenc.vn</t>
-  </si>
-  <si>
-    <t>Võ Minh Quân</t>
   </si>
   <si>
     <t>SOL000025</t>
@@ -460,16 +337,10 @@
     <t>khuong.nguyen@solenc.vn</t>
   </si>
   <si>
-    <t>Nguyễn Hoàng Tùng Khương</t>
-  </si>
-  <si>
     <t>SOL000456</t>
   </si>
   <si>
     <t>hien.nguyen@solenc.vn</t>
-  </si>
-  <si>
-    <t>Nguyễn Sĩ Hiền</t>
   </si>
   <si>
     <t>SOL000032</t>
@@ -481,16 +352,10 @@
     <t>Chỉ huy trưởng</t>
   </si>
   <si>
-    <t>Phan Thanh Châu Phi</t>
-  </si>
-  <si>
     <t>SOL000229</t>
   </si>
   <si>
     <t>dang.huynhngoc@solenc.vn</t>
-  </si>
-  <si>
-    <t>Huỳnh Ngọc Đăng</t>
   </si>
   <si>
     <t>SOL000458</t>
@@ -499,16 +364,10 @@
     <t>nhat.nguyendang@solenc.vn</t>
   </si>
   <si>
-    <t>Nguyễn Đăng Nhật</t>
-  </si>
-  <si>
     <t>SOL000129</t>
   </si>
   <si>
     <t>duc.le@solenc.vn</t>
-  </si>
-  <si>
-    <t>Lê Minh Đức</t>
   </si>
   <si>
     <t>SOL000470</t>
@@ -517,16 +376,10 @@
     <t>phi.bui@solenc.vn</t>
   </si>
   <si>
-    <t>Bùi Tấn Phi</t>
-  </si>
-  <si>
     <t>SOL000033</t>
   </si>
   <si>
     <t>dangkhanh.nguyen@solenc.vn</t>
-  </si>
-  <si>
-    <t>Nguyễn Đăng Khánh</t>
   </si>
   <si>
     <t>SOL000774</t>
@@ -535,16 +388,10 @@
     <t>thinh.dang@solenc.vn</t>
   </si>
   <si>
-    <t>Đặng Hoàng Thịnh</t>
-  </si>
-  <si>
     <t>SOL000462</t>
   </si>
   <si>
     <t>Phòng An toàn</t>
-  </si>
-  <si>
-    <t>Bùi Thị Thanh Hoa</t>
   </si>
   <si>
     <t>SOL000073</t>
@@ -553,16 +400,10 @@
     <t>minh.ha@solenc.vn</t>
   </si>
   <si>
-    <t>Hà Văn Minh</t>
-  </si>
-  <si>
     <t>SOL000492</t>
   </si>
   <si>
     <t>tu.tran@solenc.vn</t>
-  </si>
-  <si>
-    <t>Trần Thanh Tú</t>
   </si>
   <si>
     <t>SOL000072</t>
@@ -611,18 +452,6 @@
   </si>
   <si>
     <t>không test Speaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Ngọc Chí </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bùi Văn Trinh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thị Trà </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Kha </t>
   </si>
   <si>
     <t>Lê Quang Định</t>
@@ -1077,6 +906,171 @@
   <si>
     <t>hv_id</t>
   </si>
+  <si>
+    <t>Vũ Minh Hiếu</t>
+  </si>
+  <si>
+    <t>Vũ Thị Minh Nguyệt</t>
+  </si>
+  <si>
+    <t>Nguyễn Huỳnh Anh Thư</t>
+  </si>
+  <si>
+    <t>Phan Hoàng An</t>
+  </si>
+  <si>
+    <t>Phan Anh</t>
+  </si>
+  <si>
+    <t>Tôn Đức Gia Huy</t>
+  </si>
+  <si>
+    <t>Trần Tú Mỹ</t>
+  </si>
+  <si>
+    <t>Nguyễn Hải Minh</t>
+  </si>
+  <si>
+    <t>Ngô Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>Nguyễn Bích Khuê</t>
+  </si>
+  <si>
+    <t>Ngô Uyên Phương</t>
+  </si>
+  <si>
+    <t>Hoàng Lê Ánh Minh</t>
+  </si>
+  <si>
+    <t>Lê Ngọc Bảo Linh</t>
+  </si>
+  <si>
+    <t>Võ Thị Thanh Vân</t>
+  </si>
+  <si>
+    <t>Võ Yến Linh</t>
+  </si>
+  <si>
+    <t>Nguyễn Tất Thiện</t>
+  </si>
+  <si>
+    <t>Tăng Tịnh Nghi</t>
+  </si>
+  <si>
+    <t>Ngô Nguyễn Ngọc Trí</t>
+  </si>
+  <si>
+    <t>Huỳnh Lê Phương Nguyên</t>
+  </si>
+  <si>
+    <t>Trần Thùy Dương</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Đức</t>
+  </si>
+  <si>
+    <t>Võ Nhật Quỳnh Mai</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Tiến</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Mai Khanh</t>
+  </si>
+  <si>
+    <t>Phan Hoàng Trà My</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Xuân Hương</t>
+  </si>
+  <si>
+    <t>Hồ Khánh Ngọc</t>
+  </si>
+  <si>
+    <t>Tô Thanh Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Hà Hoàng Thơ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Khánh Hương</t>
+  </si>
+  <si>
+    <t>Trương Lực Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Phước Tâm</t>
+  </si>
+  <si>
+    <t>Đoàn Trần Minh Anh</t>
+  </si>
+  <si>
+    <t>Vũ Viết Kim Hằng</t>
+  </si>
+  <si>
+    <t>Lê Thị Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>Lê Đức Hậu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huệ</t>
+  </si>
+  <si>
+    <t>Huỳnh Mai Như Quỳnh</t>
+  </si>
+  <si>
+    <t>Tạ Ngọc Quỳnh Trâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Mạnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Danh</t>
+  </si>
+  <si>
+    <t>Lại Minh Tiến</t>
+  </si>
+  <si>
+    <t>Dương Quang Phúc</t>
+  </si>
+  <si>
+    <t>Trần Lê Thanh Ngọc</t>
+  </si>
+  <si>
+    <t>Võ Đình Nhựt Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Tâm</t>
+  </si>
+  <si>
+    <t>Đặng Hoàng Gia Trân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>Hoàng Đức Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Thanh Sang</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Đường Nghi</t>
+  </si>
+  <si>
+    <t>Lê Phan Trúc Luynh</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Tài My</t>
+  </si>
+  <si>
+    <t>Tô Tấn Phát</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Bảo Trân</t>
+  </si>
 </sst>
 </file>
 
@@ -32855,8 +32849,8 @@
   </sheetPr>
   <dimension ref="A1:AE140"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="84" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="84" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -32882,97 +32876,97 @@
   <sheetData>
     <row r="1" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="O1" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="P1" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="Q1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="R1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="U1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="O1" s="9" t="s">
+      <c r="W1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -32980,10 +32974,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>172</v>
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>287</v>
       </c>
       <c r="D2" s="8">
         <v>6</v>
@@ -33003,31 +32997,31 @@
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="M2" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q2" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="R2" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S2">
         <v>885</v>
@@ -33036,40 +33030,40 @@
         <v>6606</v>
       </c>
       <c r="U2" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W2" s="3">
         <v>5</v>
       </c>
       <c r="X2" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="Y2" s="3">
         <f ca="1">ROUND(RAND()*(100-50)+50,0)</f>
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="Z2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AA2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="AD2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AE2" s="12">
         <v>19705</v>
@@ -33081,10 +33075,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>169</v>
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>288</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
@@ -33104,31 +33098,31 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="M3" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="Q3" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="R3" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S3">
         <v>709</v>
@@ -33137,16 +33131,16 @@
         <v>6557</v>
       </c>
       <c r="U3" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W3" s="3">
         <v>5</v>
       </c>
       <c r="X3" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="Y3" s="3">
         <f t="shared" ref="Y3:Y58" ca="1" si="1">ROUND(RAND()*(100-50)+50,0)</f>
@@ -33154,23 +33148,23 @@
       </c>
       <c r="Z3" s="3">
         <f t="shared" ref="Z3:AD58" ca="1" si="2">ROUND(RAND()*48+1,0)</f>
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AA3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AB3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AD3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="AE3" s="13">
         <v>19489</v>
@@ -33182,10 +33176,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>166</v>
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>289</v>
       </c>
       <c r="D4" s="4">
         <v>3.5</v>
@@ -33205,32 +33199,32 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4" s="4" t="str">
         <f>VLOOKUP(B4,'[1]DS CBNV'!$B$6:$R$6000,17,0)</f>
         <v>hoa.bui@solenc.vn</v>
       </c>
       <c r="M4" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="Q4" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="R4" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S4">
         <v>1075</v>
@@ -33239,40 +33233,40 @@
         <v>5654</v>
       </c>
       <c r="U4" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W4" s="3">
         <v>5</v>
       </c>
       <c r="X4" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="Y4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="AA4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AB4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="AD4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE4" s="12">
         <v>19333</v>
@@ -33284,10 +33278,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>163</v>
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>290</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
@@ -33307,29 +33301,29 @@
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="M5" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="N5">
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="R5" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S5">
         <v>705</v>
@@ -33338,40 +33332,40 @@
         <v>6575</v>
       </c>
       <c r="U5" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W5" s="3">
         <v>5</v>
       </c>
       <c r="X5" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="Y5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="Z5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AA5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AB5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AD5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AE5" s="13">
         <v>19278</v>
@@ -33382,10 +33376,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>160</v>
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>291</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -33404,32 +33398,32 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="R6" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S6">
         <v>935</v>
@@ -33438,40 +33432,40 @@
         <v>5799</v>
       </c>
       <c r="U6" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W6" s="3">
         <v>5</v>
       </c>
       <c r="X6" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="Y6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="Z6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AA6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="AD6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="12">
         <v>19269</v>
@@ -33482,10 +33476,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>157</v>
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>292</v>
       </c>
       <c r="D7" s="4">
         <v>4</v>
@@ -33505,31 +33499,31 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="M7" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q7" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="R7" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S7">
         <v>929</v>
@@ -33538,40 +33532,40 @@
         <v>4481</v>
       </c>
       <c r="U7" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W7" s="3">
         <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="Y7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AA7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AB7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="AC7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AD7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AE7" s="13">
         <v>19233</v>
@@ -33582,10 +33576,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>154</v>
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>293</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -33605,31 +33599,31 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N8">
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="Q8" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="R8" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S8">
         <v>1009</v>
@@ -33638,40 +33632,40 @@
         <v>6419</v>
       </c>
       <c r="U8" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W8" s="3">
         <v>5</v>
       </c>
       <c r="X8" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AA8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="AD8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AE8" s="12">
         <v>19219</v>
@@ -33682,10 +33676,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>151</v>
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>294</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -33704,32 +33698,32 @@
         <v>0</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N9">
         <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="R9" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S9">
         <v>928</v>
@@ -33738,24 +33732,24 @@
         <v>5006</v>
       </c>
       <c r="U9" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W9" s="3">
         <v>5</v>
       </c>
       <c r="X9" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="Y9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -33763,11 +33757,11 @@
       </c>
       <c r="AB9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AC9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AD9" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -33782,10 +33776,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>148</v>
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>295</v>
       </c>
       <c r="D10" s="4">
         <v>3.5</v>
@@ -33805,29 +33799,29 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="R10" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S10">
         <v>928</v>
@@ -33836,40 +33830,40 @@
         <v>6749</v>
       </c>
       <c r="U10" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W10" s="3">
         <v>5</v>
       </c>
       <c r="X10" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="Y10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="Z10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AA10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="AE10" s="12">
         <v>19197</v>
@@ -33880,10 +33874,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>145</v>
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>295</v>
       </c>
       <c r="D11" s="4">
         <v>3.5</v>
@@ -33903,31 +33897,31 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="Q11" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="R11" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S11">
         <v>835</v>
@@ -33936,40 +33930,40 @@
         <v>4538</v>
       </c>
       <c r="U11" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W11" s="3">
         <v>5</v>
       </c>
       <c r="X11" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="Y11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Z11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AA11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="AB11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="AC11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AD11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AE11" s="13">
         <v>19190</v>
@@ -33980,10 +33974,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>141</v>
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>296</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -34003,31 +33997,31 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="M12" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N12">
         <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q12" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="R12" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S12">
         <v>835</v>
@@ -34036,40 +34030,40 @@
         <v>6069</v>
       </c>
       <c r="U12" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W12" s="3">
         <v>5</v>
       </c>
       <c r="X12" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="Y12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="AA12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AD12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="AE12" s="12">
         <v>19151</v>
@@ -34080,10 +34074,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>138</v>
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>297</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -34103,31 +34097,31 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="M13" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="Q13" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="R13" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S13">
         <v>835</v>
@@ -34136,40 +34130,40 @@
         <v>4567</v>
       </c>
       <c r="U13" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W13" s="3">
         <v>5</v>
       </c>
       <c r="X13" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AA13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AD13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE13" s="13">
         <v>19133</v>
@@ -34180,10 +34174,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>135</v>
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>298</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -34203,29 +34197,29 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N14">
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="R14" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S14">
         <v>690</v>
@@ -34234,40 +34228,40 @@
         <v>6941</v>
       </c>
       <c r="U14" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W14" s="3">
         <v>5</v>
       </c>
       <c r="X14" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="AA14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="AB14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AC14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AD14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="AE14" s="12">
         <v>19096</v>
@@ -34278,10 +34272,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>132</v>
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>299</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -34300,32 +34294,32 @@
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="M15" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="R15" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S15">
         <v>690</v>
@@ -34334,40 +34328,40 @@
         <v>6322</v>
       </c>
       <c r="U15" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W15" s="3">
         <v>5</v>
       </c>
       <c r="X15" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="Y15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Z15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="AA15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AC15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE15" s="13">
         <v>19094</v>
@@ -34378,10 +34372,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>129</v>
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>300</v>
       </c>
       <c r="D16" s="4">
         <v>4.5</v>
@@ -34401,31 +34395,31 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="M16" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="N16">
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="Q16" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="R16" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S16">
         <v>601</v>
@@ -34434,16 +34428,16 @@
         <v>4594</v>
       </c>
       <c r="U16" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W16" s="3">
         <v>5</v>
       </c>
       <c r="X16" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -34451,23 +34445,23 @@
       </c>
       <c r="Z16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="AA16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AE16" s="12">
         <v>19088</v>
@@ -34478,10 +34472,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>126</v>
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>301</v>
       </c>
       <c r="D17" s="4">
         <v>3.5</v>
@@ -34501,31 +34495,31 @@
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N17">
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q17" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="R17" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S17">
         <v>601</v>
@@ -34534,32 +34528,32 @@
         <v>4499</v>
       </c>
       <c r="U17" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W17" s="3">
         <v>5</v>
       </c>
       <c r="X17" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -34567,7 +34561,7 @@
       </c>
       <c r="AD17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AE17" s="13">
         <v>19050</v>
@@ -34578,10 +34572,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>123</v>
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>302</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
@@ -34601,31 +34595,31 @@
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="M18" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P18" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="Q18" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="R18" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S18">
         <v>1040</v>
@@ -34634,40 +34628,40 @@
         <v>6148</v>
       </c>
       <c r="U18" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W18" s="3">
         <v>5</v>
       </c>
       <c r="X18" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AA18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="AB18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE18" s="12">
         <v>19045</v>
@@ -34678,10 +34672,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>120</v>
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>303</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -34701,31 +34695,31 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="M19" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N19">
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q19" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="R19" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S19">
         <v>848</v>
@@ -34734,40 +34728,40 @@
         <v>5551</v>
       </c>
       <c r="U19" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W19" s="3">
         <v>5</v>
       </c>
       <c r="X19" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="AE19" s="13">
         <v>19012</v>
@@ -34778,10 +34772,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>117</v>
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>304</v>
       </c>
       <c r="D20" s="4">
         <v>3.5</v>
@@ -34801,31 +34795,31 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="M20" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N20">
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="Q20" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="R20" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S20">
         <v>916</v>
@@ -34834,40 +34828,40 @@
         <v>6022</v>
       </c>
       <c r="U20" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W20" s="3">
         <v>5</v>
       </c>
       <c r="X20" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="Y20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="Z20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="AA20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AB20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="AC20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AD20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE20" s="12">
         <v>19006</v>
@@ -34878,10 +34872,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>114</v>
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>305</v>
       </c>
       <c r="D21" s="4">
         <v>4.5</v>
@@ -34901,30 +34895,30 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L21" s="4" t="str">
         <f>VLOOKUP(B21,'[1]DS CBNV'!$B$6:$R$6000,17,0)</f>
         <v>duy.nguyenthanh@solenc.vn</v>
       </c>
       <c r="M21" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="R21" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S21">
         <v>916</v>
@@ -34933,40 +34927,40 @@
         <v>6356</v>
       </c>
       <c r="U21" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W21" s="3">
         <v>5</v>
       </c>
       <c r="X21" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="Y21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="Z21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="AA21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AC21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AD21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AE21" s="13">
         <v>18964</v>
@@ -34977,10 +34971,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>306</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
@@ -35000,31 +34994,31 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="M22" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="N22">
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q22" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="R22" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S22">
         <v>1015</v>
@@ -35033,20 +35027,20 @@
         <v>6588</v>
       </c>
       <c r="U22" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W22" s="3">
         <v>5</v>
       </c>
       <c r="X22" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="Y22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="Z22" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -35054,19 +35048,19 @@
       </c>
       <c r="AA22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="AB22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AD22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE22" s="12">
         <v>18943</v>
@@ -35077,10 +35071,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>108</v>
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>307</v>
       </c>
       <c r="D23" s="4">
         <v>3.5</v>
@@ -35100,31 +35094,31 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="M23" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N23">
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="Q23" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="R23" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S23">
         <v>1204</v>
@@ -35133,40 +35127,40 @@
         <v>6083</v>
       </c>
       <c r="U23" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W23" s="3">
         <v>5</v>
       </c>
       <c r="X23" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="Y23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Z23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="AA23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AB23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AC23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AD23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE23" s="13">
         <v>18927</v>
@@ -35177,10 +35171,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>105</v>
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>308</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
@@ -35200,31 +35194,31 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="M24" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P24" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q24" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="R24" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S24">
         <v>1204</v>
@@ -35233,40 +35227,40 @@
         <v>4522</v>
       </c>
       <c r="U24" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W24" s="3">
         <v>5</v>
       </c>
       <c r="X24" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="Y24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Z24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AB24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AE24" s="12">
         <v>18911</v>
@@ -35277,10 +35271,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>102</v>
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>309</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
@@ -35300,31 +35294,31 @@
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="M25" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q25" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="R25" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S25">
         <v>724</v>
@@ -35333,40 +35327,40 @@
         <v>5253</v>
       </c>
       <c r="U25" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W25" s="3">
         <v>5</v>
       </c>
       <c r="X25" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="Y25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Z25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="AA25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AB25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AE25" s="13">
         <v>18877</v>
@@ -35377,10 +35371,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>99</v>
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>310</v>
       </c>
       <c r="D26" s="4">
         <v>3.5</v>
@@ -35400,31 +35394,31 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="M26" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N26">
         <v>2</v>
       </c>
       <c r="O26" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="Q26" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="R26" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S26">
         <v>724</v>
@@ -35433,40 +35427,40 @@
         <v>6954</v>
       </c>
       <c r="U26" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W26" s="3">
         <v>5</v>
       </c>
       <c r="X26" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="Y26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="Z26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AA26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="AB26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AE26" s="12">
         <v>18844</v>
@@ -35477,10 +35471,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>310</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -35500,29 +35494,29 @@
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="M27" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="N27">
         <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="R27" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S27">
         <v>686</v>
@@ -35531,36 +35525,36 @@
         <v>6925</v>
       </c>
       <c r="U27" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W27" s="3">
         <v>5</v>
       </c>
       <c r="X27" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="Y27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AA27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AB27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -35575,10 +35569,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>92</v>
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>311</v>
       </c>
       <c r="D28" s="4">
         <v>3.5</v>
@@ -35598,29 +35592,29 @@
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="M28" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N28">
         <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="R28" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S28">
         <v>856</v>
@@ -35629,40 +35623,40 @@
         <v>4493</v>
       </c>
       <c r="U28" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="W28" s="3">
         <v>6</v>
       </c>
       <c r="X28" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="Y28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Z28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AE28" s="12">
         <v>18790</v>
@@ -35673,10 +35667,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>89</v>
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>312</v>
       </c>
       <c r="D29" s="4">
         <v>3.5</v>
@@ -35696,31 +35690,31 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="M29" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N29">
         <v>2</v>
       </c>
       <c r="O29" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="Q29" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="R29" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S29">
         <v>671</v>
@@ -35729,36 +35723,36 @@
         <v>4494</v>
       </c>
       <c r="U29" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W29" s="3">
         <v>6</v>
       </c>
       <c r="X29" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="Y29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="Z29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AA29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AB29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="AD29" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -35773,10 +35767,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>85</v>
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>313</v>
       </c>
       <c r="D30" s="4">
         <v>3</v>
@@ -35796,31 +35790,31 @@
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="M30" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q30" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="R30" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S30">
         <v>1011</v>
@@ -35829,40 +35823,40 @@
         <v>4529</v>
       </c>
       <c r="U30" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W30" s="3">
         <v>6</v>
       </c>
       <c r="X30" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="Y30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="AB30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AC30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AD30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE30" s="12">
         <v>18781</v>
@@ -35873,10 +35867,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>314</v>
       </c>
       <c r="D31" s="4">
         <v>2</v>
@@ -35895,34 +35889,34 @@
         <v>2</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="M31" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N31">
         <v>2</v>
       </c>
       <c r="O31" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q31" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="R31" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S31">
         <v>1164</v>
@@ -35931,40 +35925,40 @@
         <v>4491</v>
       </c>
       <c r="U31" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W31" s="3">
         <v>6</v>
       </c>
       <c r="X31" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="Y31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="Z31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AB31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AC31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AD31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AE31" s="13">
         <v>18781</v>
@@ -35975,10 +35969,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>315</v>
       </c>
       <c r="D32" s="4">
         <v>3.5</v>
@@ -35998,29 +35992,29 @@
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="M32" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P32"/>
       <c r="Q32" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="R32" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S32">
         <v>778</v>
@@ -36029,40 +36023,40 @@
         <v>4487</v>
       </c>
       <c r="U32" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W32" s="3">
         <v>6</v>
       </c>
       <c r="X32" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="Y32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Z32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AA32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="AB32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="AC32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="AE32" s="12">
         <v>18773</v>
@@ -36073,10 +36067,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>316</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -36095,34 +36089,34 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="M33" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N33">
         <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q33" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="R33" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S33">
         <v>576</v>
@@ -36131,40 +36125,40 @@
         <v>4521</v>
       </c>
       <c r="U33" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W33" s="3">
         <v>6</v>
       </c>
       <c r="X33" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="Y33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="Z33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AA33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="AB33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="AC33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="AD33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AE33" s="13">
         <v>18772</v>
@@ -36175,10 +36169,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>71</v>
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>317</v>
       </c>
       <c r="D34" s="4">
         <v>4</v>
@@ -36198,31 +36192,31 @@
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="M34" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N34">
         <v>2</v>
       </c>
       <c r="O34" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q34" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="R34" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S34">
         <v>989</v>
@@ -36231,40 +36225,40 @@
         <v>6052</v>
       </c>
       <c r="U34" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W34" s="3">
         <v>6</v>
       </c>
       <c r="X34" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="Y34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="Z34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AA34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AB34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AD34" s="3">
         <f t="shared" ref="AD34:AD58" ca="1" si="3">ROUND(RAND()*48+1,0)</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AE34" s="12">
         <v>18771</v>
@@ -36275,10 +36269,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>318</v>
       </c>
       <c r="D35" s="4">
         <v>2</v>
@@ -36298,29 +36292,29 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M35" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="N35">
         <v>2</v>
       </c>
       <c r="O35" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P35"/>
       <c r="Q35" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="R35" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S35">
         <v>656</v>
@@ -36329,40 +36323,40 @@
         <v>5293</v>
       </c>
       <c r="U35" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W35" s="3">
         <v>6</v>
       </c>
       <c r="X35" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="Y35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AA35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="AC35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="AD35" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AE35" s="13">
         <v>18770</v>
@@ -36373,10 +36367,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>319</v>
       </c>
       <c r="D36" s="4">
         <v>3.5</v>
@@ -36396,31 +36390,31 @@
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="M36" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N36">
         <v>2</v>
       </c>
       <c r="O36" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="Q36" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="R36" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S36">
         <v>1183</v>
@@ -36429,40 +36423,40 @@
         <v>4561</v>
       </c>
       <c r="U36" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="V36" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W36" s="3">
         <v>6</v>
       </c>
       <c r="X36" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="Y36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="Z36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="AA36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AB36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AD36" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AE36" s="12">
         <v>18767</v>
@@ -36473,10 +36467,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>320</v>
       </c>
       <c r="D37" s="4">
         <v>2</v>
@@ -36496,31 +36490,31 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M37" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q37" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="R37" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S37">
         <v>1220</v>
@@ -36530,37 +36524,37 @@
       </c>
       <c r="U37"/>
       <c r="V37" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W37" s="3">
         <v>6</v>
       </c>
       <c r="X37" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="Y37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Z37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AA37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AB37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AD37" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE37" s="13">
         <v>18754</v>
@@ -36571,10 +36565,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>321</v>
       </c>
       <c r="D38" s="4">
         <v>3</v>
@@ -36594,31 +36588,31 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M38" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N38">
         <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="Q38" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="R38" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S38">
         <v>1205</v>
@@ -36627,40 +36621,40 @@
         <v>6176</v>
       </c>
       <c r="U38" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="V38" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W38" s="3">
         <v>6</v>
       </c>
       <c r="X38" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="Y38" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="Z38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="AA38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AB38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AC38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="AD38" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="AE38" s="12">
         <v>18736</v>
@@ -36671,10 +36665,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>54</v>
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>322</v>
       </c>
       <c r="D39" s="4">
         <v>3</v>
@@ -36694,32 +36688,32 @@
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L39" s="4" t="str">
         <f>VLOOKUP(B39,'[1]DS CBNV'!$B$6:$R$6000,17,0)</f>
         <v>binh.nguyen@solenc.vn</v>
       </c>
       <c r="M39" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="N39">
         <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="Q39" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="R39" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S39">
         <v>1080</v>
@@ -36728,40 +36722,40 @@
         <v>6864</v>
       </c>
       <c r="U39" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="V39" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W39" s="3">
         <v>6</v>
       </c>
       <c r="X39" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="Y39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Z39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AA39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AB39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AC39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AD39" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="AE39" s="13">
         <v>18688</v>
@@ -36772,10 +36766,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>323</v>
       </c>
       <c r="D40" s="4">
         <v>3.5</v>
@@ -36795,32 +36789,32 @@
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L40" s="4" t="str">
         <f>VLOOKUP(B40,'[1]DS CBNV'!$B$6:$R$6000,17,0)</f>
         <v>uyen.nguyentruc@solenc.vn</v>
       </c>
       <c r="M40" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N40">
         <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="Q40" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="R40" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S40">
         <v>719</v>
@@ -36829,40 +36823,40 @@
         <v>5445</v>
       </c>
       <c r="U40" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="V40" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W40" s="3">
         <v>6</v>
       </c>
       <c r="X40" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="Y40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AA40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AB40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AC40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="AD40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE40" s="12">
         <v>18643</v>
@@ -36873,10 +36867,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>324</v>
       </c>
       <c r="D41" s="4">
         <v>3</v>
@@ -36896,32 +36890,32 @@
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L41" s="4" t="str">
         <f>VLOOKUP(B41,'[1]DS CBNV'!$B$6:$R$6000,17,0)</f>
         <v>thao.phan@solenc.vn</v>
       </c>
       <c r="M41" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="N41">
         <v>2</v>
       </c>
       <c r="O41" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q41" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="R41" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S41">
         <v>692</v>
@@ -36930,40 +36924,40 @@
         <v>4677</v>
       </c>
       <c r="U41" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="V41" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W41" s="3">
         <v>6</v>
       </c>
       <c r="X41" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="Y41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="Z41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="AB41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="AE41" s="13">
         <v>18636</v>
@@ -36974,10 +36968,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>325</v>
       </c>
       <c r="D42" s="4">
         <v>3.5</v>
@@ -36997,32 +36991,32 @@
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L42" s="4" t="str">
         <f>VLOOKUP(B42,'[1]DS CBNV'!$B$6:$R$6000,17,0)</f>
         <v>dat.nguyen@solenc.vn</v>
       </c>
       <c r="M42" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="N42">
         <v>2</v>
       </c>
       <c r="O42" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q42" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="R42" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S42">
         <v>596</v>
@@ -37031,40 +37025,40 @@
         <v>4558</v>
       </c>
       <c r="U42" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="V42" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W42" s="3">
         <v>6</v>
       </c>
       <c r="X42" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="Y42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AA42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AB42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AC42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AD42" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="AE42" s="12">
         <v>18632</v>
@@ -37075,10 +37069,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>326</v>
       </c>
       <c r="D43" s="4">
         <v>3</v>
@@ -37098,31 +37092,31 @@
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M43" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N43">
         <v>2</v>
       </c>
       <c r="O43" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q43" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="R43" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S43">
         <v>1159</v>
@@ -37131,40 +37125,40 @@
         <v>5717</v>
       </c>
       <c r="U43" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="V43" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W43" s="3">
         <v>6</v>
       </c>
       <c r="X43" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="Y43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AC43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AD43" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AE43" s="13">
         <v>18631</v>
@@ -37175,10 +37169,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>327</v>
       </c>
       <c r="D44" s="4">
         <v>3.5</v>
@@ -37198,29 +37192,29 @@
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M44" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="N44">
         <v>2</v>
       </c>
       <c r="O44" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P44"/>
       <c r="Q44" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="R44" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S44">
         <v>561</v>
@@ -37229,40 +37223,40 @@
         <v>4566</v>
       </c>
       <c r="U44" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="V44" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W44" s="3">
         <v>6</v>
       </c>
       <c r="X44" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="Y44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="Z44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AA44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="AB44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AC44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="AD44" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AE44" s="12">
         <v>18631</v>
@@ -37273,10 +37267,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>328</v>
       </c>
       <c r="D45" s="4">
         <v>4</v>
@@ -37296,29 +37290,29 @@
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="N45">
         <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="Q45" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="R45" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S45">
         <v>1101</v>
@@ -37327,40 +37321,40 @@
         <v>6239</v>
       </c>
       <c r="U45" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W45" s="3">
         <v>6</v>
       </c>
       <c r="X45" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AB45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AC45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AD45" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AE45" s="13">
         <v>18608</v>
@@ -37371,10 +37365,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>329</v>
       </c>
       <c r="D46" s="4">
         <v>3.5</v>
@@ -37394,31 +37388,31 @@
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M46" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="N46">
         <v>2</v>
       </c>
       <c r="O46" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q46" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="R46" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S46">
         <v>743</v>
@@ -37427,40 +37421,40 @@
         <v>4588</v>
       </c>
       <c r="U46" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="V46" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W46" s="3">
         <v>6</v>
       </c>
       <c r="X46" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="Y46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AA46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="AB46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="AC46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AD46" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE46" s="12">
         <v>18607</v>
@@ -37471,10 +37465,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>330</v>
       </c>
       <c r="D47" s="4">
         <v>3.5</v>
@@ -37494,29 +37488,29 @@
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M47" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="N47">
         <v>2</v>
       </c>
       <c r="O47" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P47"/>
       <c r="Q47" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="R47" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S47">
         <v>688</v>
@@ -37525,40 +37519,40 @@
         <v>4706</v>
       </c>
       <c r="U47" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W47" s="3">
         <v>6</v>
       </c>
       <c r="X47" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="Y47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Z47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="AA47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AB47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="AC47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AD47" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AE47" s="13">
         <v>18588</v>
@@ -37569,10 +37563,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>331</v>
       </c>
       <c r="D48" s="4">
         <v>2</v>
@@ -37592,31 +37586,31 @@
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M48" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N48">
         <v>2</v>
       </c>
       <c r="O48" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="Q48" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="R48" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S48">
         <v>853</v>
@@ -37625,16 +37619,16 @@
         <v>4598</v>
       </c>
       <c r="U48" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="V48" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W48" s="3">
         <v>6</v>
       </c>
       <c r="X48" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="Y48" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -37642,23 +37636,23 @@
       </c>
       <c r="Z48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="AA48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AB48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="AC48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AD48" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE48" s="12">
         <v>18587</v>
@@ -37669,10 +37663,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>332</v>
       </c>
       <c r="D49" s="4">
         <v>3</v>
@@ -37692,31 +37686,31 @@
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M49" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="Q49" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="R49" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S49">
         <v>1144</v>
@@ -37725,40 +37719,40 @@
         <v>4631</v>
       </c>
       <c r="U49" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="V49" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W49" s="3">
         <v>6</v>
       </c>
       <c r="X49" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="Y49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="Z49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AA49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AB49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AC49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AD49" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AE49" s="13">
         <v>18584</v>
@@ -37769,10 +37763,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>333</v>
       </c>
       <c r="D50" s="4">
         <v>4</v>
@@ -37792,31 +37786,31 @@
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M50" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="N50">
         <v>2</v>
       </c>
       <c r="O50" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="Q50" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="R50" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S50">
         <v>300</v>
@@ -37825,40 +37819,40 @@
         <v>4730</v>
       </c>
       <c r="U50" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="V50" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W50" s="3">
         <v>6</v>
       </c>
       <c r="X50" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="Y50" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="Z50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AA50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="AB50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AC50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="AD50" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE50" s="12">
         <v>18576</v>
@@ -37869,10 +37863,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>334</v>
       </c>
       <c r="D51" s="4">
         <v>3</v>
@@ -37892,29 +37886,29 @@
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="M51" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N51">
         <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P51"/>
       <c r="Q51" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="R51" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S51">
         <v>1124</v>
@@ -37923,40 +37917,40 @@
         <v>6309</v>
       </c>
       <c r="U51" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="V51" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W51" s="3">
         <v>6</v>
       </c>
       <c r="X51" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="Y51" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Z51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="AA51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AB51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AC51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AD51" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="AE51" s="13">
         <v>18571</v>
@@ -37967,10 +37961,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>335</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -37990,31 +37984,31 @@
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M52" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
       <c r="O52" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="Q52" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="R52" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S52">
         <v>737</v>
@@ -38023,40 +38017,40 @@
         <v>4724</v>
       </c>
       <c r="U52" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="V52" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W52" s="3">
         <v>6</v>
       </c>
       <c r="X52" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="Y52" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="Z52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AA52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AB52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AC52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD52" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AE52" s="12">
         <v>18554</v>
@@ -38067,10 +38061,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>336</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -38093,28 +38087,28 @@
         <v>1</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N53">
         <v>2</v>
       </c>
       <c r="O53" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q53" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="R53" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S53">
         <v>873</v>
@@ -38123,36 +38117,36 @@
         <v>4697</v>
       </c>
       <c r="U53" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="V53" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W53" s="3">
         <v>6</v>
       </c>
       <c r="X53" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="Y53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="Z53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="AB53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AC53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AD53" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -38167,10 +38161,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>337</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -38200,22 +38194,22 @@
         <v>thuong.vo@solenc.vn</v>
       </c>
       <c r="M54" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N54">
         <v>2</v>
       </c>
       <c r="O54" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="Q54" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="R54" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S54">
         <v>768</v>
@@ -38224,40 +38218,40 @@
         <v>4698</v>
       </c>
       <c r="U54" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="V54" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W54" s="3">
         <v>6</v>
       </c>
       <c r="X54" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="Y54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Z54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="AA54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AB54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="AC54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="AD54" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AE54" s="12">
         <v>18519</v>
@@ -38268,8 +38262,8 @@
         <v>54</v>
       </c>
       <c r="B55" s="5"/>
-      <c r="C55" s="4" t="s">
-        <v>189</v>
+      <c r="C55" t="s">
+        <v>338</v>
       </c>
       <c r="D55" s="4">
         <v>3</v>
@@ -38289,31 +38283,31 @@
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M55" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N55">
         <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="Q55" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="R55" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S55">
         <v>840</v>
@@ -38322,40 +38316,40 @@
         <v>4704</v>
       </c>
       <c r="U55" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="V55" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W55" s="3">
         <v>6</v>
       </c>
       <c r="X55" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="AB55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AC55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AD55" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="AE55" s="13">
         <v>18479</v>
@@ -38366,8 +38360,8 @@
         <v>55</v>
       </c>
       <c r="B56" s="5"/>
-      <c r="C56" s="4" t="s">
-        <v>190</v>
+      <c r="C56" t="s">
+        <v>339</v>
       </c>
       <c r="D56" s="4">
         <v>3</v>
@@ -38387,29 +38381,29 @@
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M56" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="N56">
         <v>2</v>
       </c>
       <c r="O56" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P56"/>
       <c r="Q56" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="R56" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S56">
         <v>1151</v>
@@ -38418,40 +38412,40 @@
         <v>6939</v>
       </c>
       <c r="U56" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="V56" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W56" s="3">
         <v>6</v>
       </c>
       <c r="X56" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="Y56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Z56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="AA56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AC56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD56" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE56" s="12">
         <v>18472</v>
@@ -38462,8 +38456,8 @@
         <v>56</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="4" t="s">
-        <v>191</v>
+      <c r="C57" t="s">
+        <v>340</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -38483,31 +38477,31 @@
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M57" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="N57">
         <v>1</v>
       </c>
       <c r="O57" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="Q57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="R57" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="S57">
         <v>1046</v>
@@ -38516,40 +38510,40 @@
         <v>5171</v>
       </c>
       <c r="U57" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="V57" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W57" s="3">
         <v>6</v>
       </c>
       <c r="X57" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="Y57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="Z57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AB57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD57" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AE57" s="13">
         <v>18472</v>
@@ -38560,8 +38554,8 @@
         <v>57</v>
       </c>
       <c r="B58" s="5"/>
-      <c r="C58" s="4" t="s">
-        <v>192</v>
+      <c r="C58" t="s">
+        <v>341</v>
       </c>
       <c r="D58" s="4">
         <v>3.5</v>
@@ -38581,13 +38575,13 @@
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S58">
         <v>1046</v>
@@ -38596,36 +38590,36 @@
         <v>4763</v>
       </c>
       <c r="U58" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="V58" s="11" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="W58" s="3">
         <v>6</v>
       </c>
       <c r="X58" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="Y58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Z58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AA58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AB58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AD58" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -38636,6 +38630,7 @@
       </c>
     </row>
     <row r="59" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="C59"/>
       <c r="H59" s="8"/>
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
@@ -38647,7 +38642,7 @@
       <c r="AE59" s="13"/>
     </row>
     <row r="60" spans="1:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="C60" s="2"/>
+      <c r="C60"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -38662,7 +38657,7 @@
       <c r="AE60" s="12"/>
     </row>
     <row r="61" spans="1:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="C61" s="2"/>
+      <c r="C61"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -38677,7 +38672,7 @@
       <c r="AE61" s="13"/>
     </row>
     <row r="62" spans="1:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="C62" s="2"/>
+      <c r="C62"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -39454,29 +39449,29 @@
   <conditionalFormatting sqref="B60:B70">
     <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:G21 I21">
+  <conditionalFormatting sqref="D21:G21 I21">
     <cfRule type="duplicateValues" dxfId="12" priority="5"/>
     <cfRule type="duplicateValues" dxfId="11" priority="6"/>
     <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:G42 I39:I42">
+  <conditionalFormatting sqref="D39:G42 I39:I42">
     <cfRule type="duplicateValues" dxfId="9" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:G45 I45">
+  <conditionalFormatting sqref="D45:G45 I45">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
     <cfRule type="duplicateValues" dxfId="7" priority="3"/>
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:G54 C4:G4 I4 I54">
+  <conditionalFormatting sqref="D54:G54 D4:G4 I4 I54">
     <cfRule type="duplicateValues" dxfId="5" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:I140">
+  <conditionalFormatting sqref="C63:I140 D60:I62">
     <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C141:I1048576 C22:G44 C1:I2 C46:G58 I46:I58 C3:G20 I3:I20 I22:I44 H3:H59">
+  <conditionalFormatting sqref="C141:I1048576 D22:G44 C1:I1 D46:G58 I46:I58 I3:I20 I22:I44 H3:H59 D3:G20 D2:I2">
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C141:I1048576 C1:I2 C22:G38 C43:G44 C46:G53 C5:G20 C55:G58 I55:I58 I5:I20 I46:I53 I43:I44 I22:I38 C3:G3 I3 H3:H59">
+  <conditionalFormatting sqref="C141:I1048576 C1:I1 D22:G38 D43:G44 D46:G53 D55:G58 I55:I58 I5:I20 I46:I53 I43:I44 I22:I38 D3:G3 I3 H3:H59 D5:G20 D2:I2">
     <cfRule type="duplicateValues" dxfId="2" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141:I1048576">

--- a/sol_score_update.xlsx
+++ b/sol_score_update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phamtanthanh/Downloads/Automate_Office_data/SOL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826501AD-E53A-924C-8EB2-C8BDAA69F07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201040F9-979B-ED4A-A43D-1A65AC2705BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="500" windowWidth="49640" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32850,7 +32850,7 @@
   <dimension ref="A1:AE140"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="84" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/sol_score_update.xlsx
+++ b/sol_score_update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10503"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10716"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phamtanthanh/Downloads/Automate_Office_data/SOL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201040F9-979B-ED4A-A43D-1A65AC2705BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E27138-A1A7-B54B-B54B-904AD27BAB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="500" windowWidth="49640" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="500" windowWidth="36900" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File gui CBNV" sheetId="1" r:id="rId1"/>
@@ -32849,7 +32849,7 @@
   </sheetPr>
   <dimension ref="A1:AE140"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="84" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -33043,27 +33043,27 @@
       </c>
       <c r="Y2" s="3">
         <f ca="1">ROUND(RAND()*(100-50)+50,0)</f>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="AC2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AD2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE2" s="12">
         <v>19705</v>
@@ -33144,27 +33144,27 @@
       </c>
       <c r="Y3" s="3">
         <f t="shared" ref="Y3:Y58" ca="1" si="1">ROUND(RAND()*(100-50)+50,0)</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="Z3" s="3">
         <f t="shared" ref="Z3:AD58" ca="1" si="2">ROUND(RAND()*48+1,0)</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AA3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AD3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="AE3" s="13">
         <v>19489</v>
@@ -33246,27 +33246,27 @@
       </c>
       <c r="Y4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AA4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="AB4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="AC4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AE4" s="12">
         <v>19333</v>
@@ -33345,27 +33345,27 @@
       </c>
       <c r="Y5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="Z5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AB5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AE5" s="13">
         <v>19278</v>
@@ -33445,27 +33445,27 @@
       </c>
       <c r="Y6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="Z6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AA6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="AD6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AE6" s="12">
         <v>19269</v>
@@ -33545,27 +33545,27 @@
       </c>
       <c r="Y7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AB7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="AC7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AE7" s="13">
         <v>19233</v>
@@ -33645,27 +33645,27 @@
       </c>
       <c r="Y8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="AA8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="AD8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AE8" s="12">
         <v>19219</v>
@@ -33745,27 +33745,27 @@
       </c>
       <c r="Y9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="AA9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AB9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AC9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AD9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="AE9" s="13">
         <v>19209</v>
@@ -33843,27 +33843,27 @@
       </c>
       <c r="Y10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="Z10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AB10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="AD10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE10" s="12">
         <v>19197</v>
@@ -33943,11 +33943,11 @@
       </c>
       <c r="Y11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Z11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AA11" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -33955,15 +33955,15 @@
       </c>
       <c r="AB11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AD11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AE11" s="13">
         <v>19190</v>
@@ -34043,27 +34043,27 @@
       </c>
       <c r="Y12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AA12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AB12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="AD12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AE12" s="12">
         <v>19151</v>
@@ -34143,27 +34143,27 @@
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AA13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AD13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AE13" s="13">
         <v>19133</v>
@@ -34241,27 +34241,27 @@
       </c>
       <c r="Y14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="AA14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AC14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AD14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="AE14" s="12">
         <v>19096</v>
@@ -34341,27 +34341,27 @@
       </c>
       <c r="Y15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="Z15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AA15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="AC15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AE15" s="13">
         <v>19094</v>
@@ -34441,27 +34441,27 @@
       </c>
       <c r="Y16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="Z16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE16" s="12">
         <v>19088</v>
@@ -34541,27 +34541,27 @@
       </c>
       <c r="Y17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AA17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="AD17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AE17" s="13">
         <v>19050</v>
@@ -34641,27 +34641,27 @@
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Z18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AB18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="AD18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AE18" s="12">
         <v>19045</v>
@@ -34741,27 +34741,27 @@
       </c>
       <c r="Y19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AE19" s="13">
         <v>19012</v>
@@ -34841,27 +34841,27 @@
       </c>
       <c r="Y20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Z20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AB20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AC20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE20" s="12">
         <v>19006</v>
@@ -34940,19 +34940,19 @@
       </c>
       <c r="Y21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Z21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AA21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AB21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AC21" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -34960,7 +34960,7 @@
       </c>
       <c r="AD21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AE21" s="13">
         <v>18964</v>
@@ -35040,27 +35040,27 @@
       </c>
       <c r="Y22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="Z22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="AA22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AB22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="AD22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE22" s="12">
         <v>18943</v>
@@ -35140,27 +35140,27 @@
       </c>
       <c r="Y23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Z23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AA23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="AB23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AC23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AD23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AE23" s="13">
         <v>18927</v>
@@ -35240,27 +35240,27 @@
       </c>
       <c r="Y24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Z24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AA24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="AB24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="AE24" s="12">
         <v>18911</v>
@@ -35340,27 +35340,27 @@
       </c>
       <c r="Y25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="Z25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="AA25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AB25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AE25" s="13">
         <v>18877</v>
@@ -35440,27 +35440,27 @@
       </c>
       <c r="Y26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AA26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AB26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AE26" s="12">
         <v>18844</v>
@@ -35538,27 +35538,27 @@
       </c>
       <c r="Y27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Z27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AA27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AE27" s="13">
         <v>18816</v>
@@ -35636,27 +35636,27 @@
       </c>
       <c r="Y28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="Z28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="AA28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AE28" s="12">
         <v>18790</v>
@@ -35736,27 +35736,27 @@
       </c>
       <c r="Y29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Z29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AA29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AB29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="AC29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AD29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AE29" s="13">
         <v>18781</v>
@@ -35836,27 +35836,27 @@
       </c>
       <c r="Y30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="Z30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AB30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AC30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="AD30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AE30" s="12">
         <v>18781</v>
@@ -35938,27 +35938,27 @@
       </c>
       <c r="Y31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="Z31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="AA31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="AB31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AC31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AD31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AE31" s="13">
         <v>18781</v>
@@ -36036,27 +36036,27 @@
       </c>
       <c r="Y32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="Z32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="AB32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="AC32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AD32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AE32" s="12">
         <v>18773</v>
@@ -36138,27 +36138,27 @@
       </c>
       <c r="Y33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="Z33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="AA33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AB33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="AC33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AD33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="AE33" s="13">
         <v>18772</v>
@@ -36238,27 +36238,27 @@
       </c>
       <c r="Y34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Z34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AC34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="AD34" s="3">
         <f t="shared" ref="AD34:AD58" ca="1" si="3">ROUND(RAND()*48+1,0)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AE34" s="12">
         <v>18771</v>
@@ -36336,27 +36336,27 @@
       </c>
       <c r="Y35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AA35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AB35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AC35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AD35" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE35" s="13">
         <v>18770</v>
@@ -36436,27 +36436,27 @@
       </c>
       <c r="Y36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="Z36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AA36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="AC36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AD36" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AE36" s="12">
         <v>18767</v>
@@ -36534,27 +36534,27 @@
       </c>
       <c r="Y37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AB37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AC37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AD37" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AE37" s="13">
         <v>18754</v>
@@ -36634,27 +36634,27 @@
       </c>
       <c r="Y38" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="Z38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AA38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="AB38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD38" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AE38" s="12">
         <v>18736</v>
@@ -36735,27 +36735,27 @@
       </c>
       <c r="Y39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="Z39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AA39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="AB39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AC39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AD39" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="AE39" s="13">
         <v>18688</v>
@@ -36836,27 +36836,27 @@
       </c>
       <c r="Y40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="AA40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="AB40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AC40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AD40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AE40" s="12">
         <v>18643</v>
@@ -36941,23 +36941,23 @@
       </c>
       <c r="Z41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AA41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AB41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AC41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="AD41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="AE41" s="13">
         <v>18636</v>
@@ -37038,27 +37038,27 @@
       </c>
       <c r="Y42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AA42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AB42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AC42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AD42" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="AE42" s="12">
         <v>18632</v>
@@ -37138,27 +37138,27 @@
       </c>
       <c r="Y43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="Z43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="AA43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AB43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AC43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AD43" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="AE43" s="13">
         <v>18631</v>
@@ -37236,27 +37236,27 @@
       </c>
       <c r="Y44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Z44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AB44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AC44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="AD44" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="AE44" s="12">
         <v>18631</v>
@@ -37334,27 +37334,27 @@
       </c>
       <c r="Y45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="AB45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AC45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD45" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AE45" s="13">
         <v>18608</v>
@@ -37434,27 +37434,27 @@
       </c>
       <c r="Y46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="Z46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="AB46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="AC46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AD46" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="AE46" s="12">
         <v>18607</v>
@@ -37532,27 +37532,27 @@
       </c>
       <c r="Y47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="Z47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="AA47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AB47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AC47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="AD47" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AE47" s="13">
         <v>18588</v>
@@ -37632,27 +37632,27 @@
       </c>
       <c r="Y48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="Z48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="AA48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AB48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="AC48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AD48" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AE48" s="12">
         <v>18587</v>
@@ -37732,27 +37732,27 @@
       </c>
       <c r="Y49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AA49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AB49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AD49" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="AE49" s="13">
         <v>18584</v>
@@ -37832,27 +37832,27 @@
       </c>
       <c r="Y50" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Z50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AA50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AB50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AC50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="AD50" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="AE50" s="12">
         <v>18576</v>
@@ -37930,27 +37930,27 @@
       </c>
       <c r="Y51" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="Z51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="AA51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AB51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AC51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD51" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="AE51" s="13">
         <v>18571</v>
@@ -38030,27 +38030,27 @@
       </c>
       <c r="Y52" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="Z52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AA52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AB52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AC52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="AD52" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AE52" s="12">
         <v>18554</v>
@@ -38130,27 +38130,27 @@
       </c>
       <c r="Y53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Z53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="AA53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AB53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="AC53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AD53" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AE53" s="13">
         <v>18553</v>
@@ -38231,27 +38231,27 @@
       </c>
       <c r="Y54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="Z54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AA54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="AB54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD54" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AE54" s="12">
         <v>18519</v>
@@ -38329,27 +38329,27 @@
       </c>
       <c r="Y55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="AB55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AC55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AD55" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AE55" s="13">
         <v>18479</v>
@@ -38425,7 +38425,7 @@
       </c>
       <c r="Y56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="Z56" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -38433,19 +38433,19 @@
       </c>
       <c r="AA56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AB56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AC56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD56" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE56" s="12">
         <v>18472</v>
@@ -38523,27 +38523,27 @@
       </c>
       <c r="Y57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Z57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AA57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AC57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AD57" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE57" s="13">
         <v>18472</v>
@@ -38603,27 +38603,27 @@
       </c>
       <c r="Y58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AA58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AB58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD58" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE58" s="12">
         <v>18470</v>
@@ -39449,33 +39449,33 @@
   <conditionalFormatting sqref="B60:B70">
     <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C63:I140 D60:I62">
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141:I1048576 C1:I1 D22:G38 D43:G44 D46:G53 D55:G58 I55:I58 I5:I20 I46:I53 I43:I44 I22:I38 D3:G3 I3 H3:H59 D5:G20 D2:I2">
+    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141:I1048576 D22:G44 C1:I1 D46:G58 I46:I58 I3:I20 I22:I44 H3:H59 D3:G20 D2:I2">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141:I1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D21:G21 I21">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:G42 I39:I42">
-    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:G45 I45">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:G54 D4:G4 I4 I54">
-    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63:I140 D60:I62">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141:I1048576 D22:G44 C1:I1 D46:G58 I46:I58 I3:I20 I22:I44 H3:H59 D3:G20 D2:I2">
-    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141:I1048576 C1:I1 D22:G38 D43:G44 D46:G53 D55:G58 I55:I58 I5:I20 I46:I53 I43:I44 I22:I38 D3:G3 I3 H3:H59 D5:G20 D2:I2">
-    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141:I1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60:J69 B1:B3 B5:B20 B22:B38 B43:B53 B73:B1048576 J73:J108 B55:B58">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>

--- a/sol_score_update.xlsx
+++ b/sol_score_update.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phamtanthanh/Downloads/Automate_Office_data/SOL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E27138-A1A7-B54B-B54B-904AD27BAB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873C7565-007D-6143-B7D5-AA40F7E384D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="500" windowWidth="36900" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39320" yWindow="4560" windowWidth="25500" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File gui CBNV" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'File gui CBNV'!$A$1:$L$58</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="386">
   <si>
     <t>Trưởng BP Admin</t>
   </si>
@@ -1071,6 +1072,138 @@
   <si>
     <t>Nguyễn Ngọc Bảo Trân</t>
   </si>
+  <si>
+    <t>hv_fullname</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Huy</t>
+  </si>
+  <si>
+    <t>Lê Quang Huy</t>
+  </si>
+  <si>
+    <t>Hồ Phi Long</t>
+  </si>
+  <si>
+    <t>Vũ Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Võ Hoàn Vũ</t>
+  </si>
+  <si>
+    <t>Dương Minh Tuấn</t>
+  </si>
+  <si>
+    <t>Phạm Quốc Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thắm</t>
+  </si>
+  <si>
+    <t>Phạm Thị Mơ</t>
+  </si>
+  <si>
+    <t>Nguyễn Lệ Huyền</t>
+  </si>
+  <si>
+    <t>Đỗ Lê Nguyên Sơn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phúc Long</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Khánh</t>
+  </si>
+  <si>
+    <t>Đặng Phúc Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Sang</t>
+  </si>
+  <si>
+    <t>Phạm Thị Như Ngọc</t>
+  </si>
+  <si>
+    <t>Bùi Văn Huân</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Nhật</t>
+  </si>
+  <si>
+    <t>Huỳnh Ngọc Đăng</t>
+  </si>
+  <si>
+    <t>Lê Minh Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Hồng</t>
+  </si>
+  <si>
+    <t>Bùi Văn Trịnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Phước Vương Vũ</t>
+  </si>
+  <si>
+    <t>Nguyễn Phước Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Đạt</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Quý</t>
+  </si>
+  <si>
+    <t>Phan Thị Bình</t>
+  </si>
+  <si>
+    <t>Lê Thị Hoa</t>
+  </si>
+  <si>
+    <t>Trần Lộc Phát</t>
+  </si>
+  <si>
+    <t>Trần Thị Xuân Hồng</t>
+  </si>
+  <si>
+    <t>Tô Gia Bảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Trúc Kim Uyên</t>
+  </si>
+  <si>
+    <t>Phạm Quốc Thịnh</t>
+  </si>
+  <si>
+    <t>Đào Tiến Sang</t>
+  </si>
+  <si>
+    <t>Nguyễn Đỗ Thạch</t>
+  </si>
+  <si>
+    <t>Dương Minh Thiện</t>
+  </si>
+  <si>
+    <t>Lê Đức Trúc Quỳnh</t>
+  </si>
+  <si>
+    <t>Đặng Ngọc Toàn</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Đắc</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Liêm</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Nam</t>
+  </si>
+  <si>
+    <t>Phan Thị Thu Huyền</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Tuyết</t>
+  </si>
 </sst>
 </file>
 
@@ -1079,7 +1212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,8 +1253,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1136,14 +1282,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1189,7 +1347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1213,13 +1371,37 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32849,29 +33031,33 @@
   </sheetPr>
   <dimension ref="A1:AE140"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="137" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="9" customWidth="1"/>
     <col min="4" max="8" width="12.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="40.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="30.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="31" style="1" customWidth="1"/>
-    <col min="13" max="18" width="9.1640625" style="1"/>
-    <col min="19" max="19" width="11.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.1640625" style="1"/>
-    <col min="21" max="21" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.1640625" style="1"/>
-    <col min="25" max="25" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="31" style="9" customWidth="1"/>
+    <col min="13" max="14" width="9.1640625" style="9"/>
+    <col min="15" max="15" width="13.1640625" style="9" customWidth="1"/>
+    <col min="16" max="18" width="9.1640625" style="9"/>
+    <col min="19" max="19" width="11.6640625" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" style="9"/>
+    <col min="21" max="21" width="42.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" style="20"/>
+    <col min="25" max="25" width="20" style="1" customWidth="1"/>
+    <col min="26" max="30" width="9.1640625" style="1"/>
+    <col min="31" max="31" width="9.1640625" style="9"/>
+    <col min="32" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -32881,7 +33067,7 @@
       <c r="B1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="15" t="s">
         <v>124</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -32908,43 +33094,43 @@
       <c r="K1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="20" t="s">
         <v>279</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -32965,7 +33151,7 @@
       <c r="AD1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="9" t="s">
         <v>286</v>
       </c>
     </row>
@@ -32976,7 +33162,7 @@
       <c r="B2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>287</v>
       </c>
       <c r="D2" s="8">
@@ -33002,70 +33188,70 @@
       <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="13">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="19">
         <v>885</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="13">
         <v>6606</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="23">
         <v>5</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="19" t="s">
         <v>238</v>
       </c>
       <c r="Y2" s="3">
         <f ca="1">ROUND(RAND()*(100-50)+50,0)</f>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="Z2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AB2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="AC2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="AD2" s="3">
         <f ca="1">ROUND(RAND()*48+1,0)</f>
-        <v>18</v>
-      </c>
-      <c r="AE2" s="12">
+        <v>44</v>
+      </c>
+      <c r="AE2" s="10">
         <v>19705</v>
       </c>
     </row>
@@ -33077,7 +33263,7 @@
       <c r="B3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="13" t="s">
         <v>288</v>
       </c>
       <c r="D3" s="8">
@@ -33103,70 +33289,70 @@
       <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="13">
         <v>2</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="19">
         <v>709</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="13">
         <v>6557</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="23">
         <v>5</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="19" t="s">
         <v>239</v>
       </c>
       <c r="Y3" s="3">
         <f t="shared" ref="Y3:Y58" ca="1" si="1">ROUND(RAND()*(100-50)+50,0)</f>
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="Z3" s="3">
         <f t="shared" ref="Z3:AD58" ca="1" si="2">ROUND(RAND()*48+1,0)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AD3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="AE3" s="13">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="11">
         <v>19489</v>
       </c>
     </row>
@@ -33178,7 +33364,7 @@
       <c r="B4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="13" t="s">
         <v>289</v>
       </c>
       <c r="D4" s="4">
@@ -33204,71 +33390,71 @@
       <c r="K4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="4" t="str">
+      <c r="L4" s="16" t="str">
         <f>VLOOKUP(B4,'[1]DS CBNV'!$B$6:$R$6000,17,0)</f>
         <v>hoa.bui@solenc.vn</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="13">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="19">
         <v>1075</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="13">
         <v>5654</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="23">
         <v>5</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="19" t="s">
         <v>240</v>
       </c>
       <c r="Y4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AA4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AB4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="AC4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="AD4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="AE4" s="12">
+        <v>46</v>
+      </c>
+      <c r="AE4" s="10">
         <v>19333</v>
       </c>
     </row>
@@ -33280,7 +33466,7 @@
       <c r="B5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="13" t="s">
         <v>290</v>
       </c>
       <c r="D5" s="8">
@@ -33306,54 +33492,54 @@
       <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="13">
         <v>2</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5" t="s">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="19">
         <v>705</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="13">
         <v>6575</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="V5" s="11" t="s">
+      <c r="V5" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="23">
         <v>5</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="19" t="s">
         <v>241</v>
       </c>
       <c r="Y5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Z5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB5" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -33361,13 +33547,13 @@
       </c>
       <c r="AC5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AD5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="AE5" s="13">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="11">
         <v>19278</v>
       </c>
     </row>
@@ -33378,7 +33564,7 @@
       <c r="B6" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="13" t="s">
         <v>291</v>
       </c>
       <c r="D6" s="4">
@@ -33406,46 +33592,46 @@
       <c r="K6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="13">
         <v>1</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6" t="s">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="19">
         <v>935</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="13">
         <v>5799</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="V6" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="23">
         <v>5</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="19" t="s">
         <v>242</v>
       </c>
       <c r="Y6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Z6" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -33453,21 +33639,21 @@
       </c>
       <c r="AA6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AD6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="AE6" s="12">
+        <v>29</v>
+      </c>
+      <c r="AE6" s="10">
         <v>19269</v>
       </c>
     </row>
@@ -33478,7 +33664,7 @@
       <c r="B7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="13" t="s">
         <v>292</v>
       </c>
       <c r="D7" s="4">
@@ -33504,70 +33690,70 @@
       <c r="K7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="13">
         <v>1</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="19">
         <v>929</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="13">
         <v>4481</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="V7" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="23">
         <v>5</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" s="19" t="s">
         <v>243</v>
       </c>
       <c r="Y7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AA7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AB7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="AC7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AD7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="AE7" s="13">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="11">
         <v>19233</v>
       </c>
     </row>
@@ -33578,7 +33764,7 @@
       <c r="B8" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>293</v>
       </c>
       <c r="D8" s="4">
@@ -33604,70 +33790,70 @@
       <c r="K8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="13">
         <v>2</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="19">
         <v>1009</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="13">
         <v>6419</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="23">
         <v>5</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="19" t="s">
         <v>244</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="AA8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AD8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AE8" s="12">
+        <v>39</v>
+      </c>
+      <c r="AE8" s="10">
         <v>19219</v>
       </c>
     </row>
@@ -33678,7 +33864,7 @@
       <c r="B9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="13" t="s">
         <v>294</v>
       </c>
       <c r="D9" s="4">
@@ -33706,50 +33892,50 @@
       <c r="K9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="13">
         <v>2</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P9"/>
-      <c r="Q9" t="s">
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="19">
         <v>928</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="13">
         <v>5006</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="23">
         <v>5</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="19" t="s">
         <v>245</v>
       </c>
       <c r="Y9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="AA9" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -33757,17 +33943,17 @@
       </c>
       <c r="AB9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AC9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="AD9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="AE9" s="13">
+        <v>29</v>
+      </c>
+      <c r="AE9" s="11">
         <v>19209</v>
       </c>
     </row>
@@ -33778,7 +33964,7 @@
       <c r="B10" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="13" t="s">
         <v>295</v>
       </c>
       <c r="D10" s="4">
@@ -33804,68 +33990,68 @@
       <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="13">
         <v>1</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P10"/>
-      <c r="Q10" t="s">
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="19">
         <v>928</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="13">
         <v>6749</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="23">
         <v>5</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="19" t="s">
         <v>246</v>
       </c>
       <c r="Y10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="Z10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="AB10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="AE10" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="10">
         <v>19197</v>
       </c>
     </row>
@@ -33876,7 +34062,7 @@
       <c r="B11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="13" t="s">
         <v>295</v>
       </c>
       <c r="D11" s="4">
@@ -33902,70 +34088,70 @@
       <c r="K11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="13">
         <v>1</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="19">
         <v>835</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="13">
         <v>4538</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="V11" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="23">
         <v>5</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="19" t="s">
         <v>247</v>
       </c>
       <c r="Y11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="Z11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AB11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AC11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AD11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="AE11" s="13">
+        <v>42</v>
+      </c>
+      <c r="AE11" s="11">
         <v>19190</v>
       </c>
     </row>
@@ -33976,7 +34162,7 @@
       <c r="B12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="13" t="s">
         <v>296</v>
       </c>
       <c r="D12" s="4">
@@ -34002,70 +34188,70 @@
       <c r="K12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="13">
         <v>2</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="19">
         <v>835</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="13">
         <v>6069</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="23">
         <v>5</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="19" t="s">
         <v>248</v>
       </c>
       <c r="Y12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AA12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AB12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AD12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="AE12" s="12">
+        <v>31</v>
+      </c>
+      <c r="AE12" s="10">
         <v>19151</v>
       </c>
     </row>
@@ -34076,7 +34262,7 @@
       <c r="B13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="13" t="s">
         <v>297</v>
       </c>
       <c r="D13" s="4">
@@ -34102,70 +34288,70 @@
       <c r="K13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="13">
         <v>2</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="19">
         <v>835</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="13">
         <v>4567</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="V13" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="23">
         <v>5</v>
       </c>
-      <c r="X13" t="s">
+      <c r="X13" s="19" t="s">
         <v>249</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AA13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AD13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="AE13" s="13">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="11">
         <v>19133</v>
       </c>
     </row>
@@ -34176,7 +34362,7 @@
       <c r="B14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="13" t="s">
         <v>298</v>
       </c>
       <c r="D14" s="4">
@@ -34202,68 +34388,68 @@
       <c r="K14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="13">
         <v>2</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14" t="s">
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="19">
         <v>690</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="13">
         <v>6941</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="V14" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="23">
         <v>5</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X14" s="19" t="s">
         <v>250</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AA14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AB14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AC14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="AD14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="AE14" s="12">
+        <v>37</v>
+      </c>
+      <c r="AE14" s="10">
         <v>19096</v>
       </c>
     </row>
@@ -34274,7 +34460,7 @@
       <c r="B15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="13" t="s">
         <v>299</v>
       </c>
       <c r="D15" s="4">
@@ -34302,68 +34488,68 @@
       <c r="K15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="13">
         <v>1</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15" t="s">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="19">
         <v>690</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="13">
         <v>6322</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="V15" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="23">
         <v>5</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X15" s="19" t="s">
         <v>251</v>
       </c>
       <c r="Y15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="Z15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="AA15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AC15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="AE15" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="11">
         <v>19094</v>
       </c>
     </row>
@@ -34374,7 +34560,7 @@
       <c r="B16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="13" t="s">
         <v>300</v>
       </c>
       <c r="D16" s="4">
@@ -34400,70 +34586,70 @@
       <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="13">
         <v>2</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="19">
         <v>601</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="13">
         <v>4594</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="V16" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="23">
         <v>5</v>
       </c>
-      <c r="X16" t="s">
+      <c r="X16" s="19" t="s">
         <v>252</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="Z16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="AE16" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE16" s="10">
         <v>19088</v>
       </c>
     </row>
@@ -34474,7 +34660,7 @@
       <c r="B17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="13" t="s">
         <v>301</v>
       </c>
       <c r="D17" s="4">
@@ -34500,70 +34686,70 @@
       <c r="K17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="13">
         <v>2</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="19">
         <v>601</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="13">
         <v>4499</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="V17" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="23">
         <v>5</v>
       </c>
-      <c r="X17" t="s">
+      <c r="X17" s="19" t="s">
         <v>253</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="AA17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AD17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AE17" s="13">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="11">
         <v>19050</v>
       </c>
     </row>
@@ -34574,7 +34760,7 @@
       <c r="B18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="13" t="s">
         <v>302</v>
       </c>
       <c r="D18" s="4">
@@ -34600,70 +34786,70 @@
       <c r="K18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="13">
         <v>1</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="19">
         <v>1040</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="13">
         <v>6148</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="V18" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="23">
         <v>5</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X18" s="19" t="s">
         <v>254</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Z18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AB18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="AE18" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="10">
         <v>19045</v>
       </c>
     </row>
@@ -34674,7 +34860,7 @@
       <c r="B19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="13" t="s">
         <v>303</v>
       </c>
       <c r="D19" s="4">
@@ -34700,60 +34886,60 @@
       <c r="K19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="13">
         <v>2</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="19">
         <v>848</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="13">
         <v>5551</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="V19" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="23">
         <v>5</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X19" s="19" t="s">
         <v>255</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -34761,9 +34947,9 @@
       </c>
       <c r="AD19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="AE19" s="13">
+        <v>32</v>
+      </c>
+      <c r="AE19" s="11">
         <v>19012</v>
       </c>
     </row>
@@ -34774,7 +34960,7 @@
       <c r="B20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="13" t="s">
         <v>304</v>
       </c>
       <c r="D20" s="4">
@@ -34800,70 +34986,70 @@
       <c r="K20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="13">
         <v>2</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="19">
         <v>916</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="13">
         <v>6022</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="V20" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="23">
         <v>5</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X20" s="19" t="s">
         <v>256</v>
       </c>
       <c r="Y20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="Z20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AA20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AB20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AC20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="AD20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="AE20" s="12">
+        <v>34</v>
+      </c>
+      <c r="AE20" s="10">
         <v>19006</v>
       </c>
     </row>
@@ -34874,7 +35060,7 @@
       <c r="B21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="13" t="s">
         <v>305</v>
       </c>
       <c r="D21" s="4">
@@ -34900,69 +35086,69 @@
       <c r="K21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="4" t="str">
+      <c r="L21" s="16" t="str">
         <f>VLOOKUP(B21,'[1]DS CBNV'!$B$6:$R$6000,17,0)</f>
         <v>duy.nguyenthanh@solenc.vn</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="13">
         <v>2</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P21"/>
-      <c r="Q21" t="s">
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="19">
         <v>916</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="13">
         <v>6356</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U21" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="V21" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="23">
         <v>5</v>
       </c>
-      <c r="X21" t="s">
+      <c r="X21" s="19" t="s">
         <v>257</v>
       </c>
       <c r="Y21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="Z21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AA21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="AB21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="AC21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AD21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="AE21" s="13">
+        <v>12</v>
+      </c>
+      <c r="AE21" s="11">
         <v>18964</v>
       </c>
     </row>
@@ -34973,7 +35159,7 @@
       <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="13" t="s">
         <v>306</v>
       </c>
       <c r="D22" s="4">
@@ -34999,56 +35185,56 @@
       <c r="K22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="13">
         <v>2</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="19">
         <v>1015</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="13">
         <v>6588</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U22" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="V22" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="23">
         <v>5</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X22" s="19" t="s">
         <v>258</v>
       </c>
       <c r="Y22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="Z22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="AA22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AB22" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -35056,13 +35242,13 @@
       </c>
       <c r="AC22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="AD22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="AE22" s="12">
+        <v>27</v>
+      </c>
+      <c r="AE22" s="10">
         <v>18943</v>
       </c>
     </row>
@@ -35073,7 +35259,7 @@
       <c r="B23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="13" t="s">
         <v>307</v>
       </c>
       <c r="D23" s="4">
@@ -35099,70 +35285,70 @@
       <c r="K23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="13">
         <v>3</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="19">
         <v>1204</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="13">
         <v>6083</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="V23" s="11" t="s">
+      <c r="V23" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="23">
         <v>5</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X23" s="19" t="s">
         <v>259</v>
       </c>
       <c r="Y23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Z23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="AA23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AB23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AC23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AD23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="AE23" s="13">
+        <v>35</v>
+      </c>
+      <c r="AE23" s="11">
         <v>18927</v>
       </c>
     </row>
@@ -35173,7 +35359,7 @@
       <c r="B24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="13" t="s">
         <v>308</v>
       </c>
       <c r="D24" s="4">
@@ -35199,70 +35385,70 @@
       <c r="K24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="13">
         <v>1</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="19">
         <v>1204</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="13">
         <v>4522</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="V24" s="11" t="s">
+      <c r="V24" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="23">
         <v>5</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X24" s="19" t="s">
         <v>260</v>
       </c>
       <c r="Y24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AA24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AB24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AE24" s="12">
+        <v>18</v>
+      </c>
+      <c r="AE24" s="10">
         <v>18911</v>
       </c>
     </row>
@@ -35273,7 +35459,7 @@
       <c r="B25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="13" t="s">
         <v>309</v>
       </c>
       <c r="D25" s="4">
@@ -35299,60 +35485,60 @@
       <c r="K25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="13">
         <v>2</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="19">
         <v>724</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="13">
         <v>5253</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U25" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="V25" s="11" t="s">
+      <c r="V25" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="23">
         <v>5</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X25" s="19" t="s">
         <v>261</v>
       </c>
       <c r="Y25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Z25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AA25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="AB25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -35360,9 +35546,9 @@
       </c>
       <c r="AD25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="AE25" s="13">
+        <v>31</v>
+      </c>
+      <c r="AE25" s="11">
         <v>18877</v>
       </c>
     </row>
@@ -35373,7 +35559,7 @@
       <c r="B26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="13" t="s">
         <v>310</v>
       </c>
       <c r="D26" s="4">
@@ -35399,48 +35585,48 @@
       <c r="K26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="13">
         <v>2</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="19">
         <v>724</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="13">
         <v>6954</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U26" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="V26" s="11" t="s">
+      <c r="V26" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="23">
         <v>5</v>
       </c>
-      <c r="X26" t="s">
+      <c r="X26" s="19" t="s">
         <v>262</v>
       </c>
       <c r="Y26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="Z26" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -35448,21 +35634,21 @@
       </c>
       <c r="AA26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AB26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="AE26" s="12">
+        <v>6</v>
+      </c>
+      <c r="AE26" s="10">
         <v>18844</v>
       </c>
     </row>
@@ -35473,7 +35659,7 @@
       <c r="B27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="13" t="s">
         <v>310</v>
       </c>
       <c r="D27" s="4">
@@ -35499,68 +35685,68 @@
       <c r="K27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="13">
         <v>2</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P27"/>
-      <c r="Q27" t="s">
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="19">
         <v>686</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="13">
         <v>6925</v>
       </c>
-      <c r="U27" t="s">
+      <c r="U27" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="V27" s="11" t="s">
+      <c r="V27" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="23">
         <v>5</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X27" s="19" t="s">
         <v>263</v>
       </c>
       <c r="Y27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Z27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="AA27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="AB27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="AE27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="11">
         <v>18816</v>
       </c>
     </row>
@@ -35571,7 +35757,7 @@
       <c r="B28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="13" t="s">
         <v>311</v>
       </c>
       <c r="D28" s="4">
@@ -35597,68 +35783,68 @@
       <c r="K28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="13">
         <v>2</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P28"/>
-      <c r="Q28" t="s">
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="19">
         <v>856</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="13">
         <v>4493</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="V28" s="11" t="s">
+      <c r="V28" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W28" s="23">
         <v>6</v>
       </c>
-      <c r="X28" t="s">
+      <c r="X28" s="19" t="s">
         <v>264</v>
       </c>
       <c r="Y28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="Z28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AA28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AE28" s="12">
+        <v>24</v>
+      </c>
+      <c r="AE28" s="10">
         <v>18790</v>
       </c>
     </row>
@@ -35669,7 +35855,7 @@
       <c r="B29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="13" t="s">
         <v>312</v>
       </c>
       <c r="D29" s="4">
@@ -35695,70 +35881,70 @@
       <c r="K29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="13">
         <v>2</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="19">
         <v>671</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="13">
         <v>4494</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="V29" s="11" t="s">
+      <c r="V29" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="23">
         <v>6</v>
       </c>
-      <c r="X29" t="s">
+      <c r="X29" s="19" t="s">
         <v>265</v>
       </c>
       <c r="Y29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Z29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AA29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="AB29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="AC29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="AD29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="AE29" s="13">
+        <v>24</v>
+      </c>
+      <c r="AE29" s="11">
         <v>18781</v>
       </c>
     </row>
@@ -35769,7 +35955,7 @@
       <c r="B30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="13" t="s">
         <v>313</v>
       </c>
       <c r="D30" s="4">
@@ -35795,70 +35981,70 @@
       <c r="K30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="13">
         <v>1</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="19">
         <v>1011</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="13">
         <v>4529</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="V30" s="11" t="s">
+      <c r="V30" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30" s="23">
         <v>6</v>
       </c>
-      <c r="X30" t="s">
+      <c r="X30" s="19" t="s">
         <v>266</v>
       </c>
       <c r="Y30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="AC30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AD30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="AE30" s="12">
+        <v>10</v>
+      </c>
+      <c r="AE30" s="10">
         <v>18781</v>
       </c>
     </row>
@@ -35869,7 +36055,7 @@
       <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="13" t="s">
         <v>314</v>
       </c>
       <c r="D31" s="4">
@@ -35897,70 +36083,70 @@
       <c r="K31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="13">
         <v>2</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="19">
         <v>1164</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="13">
         <v>4491</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U31" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="V31" s="11" t="s">
+      <c r="V31" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W31" s="23">
         <v>6</v>
       </c>
-      <c r="X31" t="s">
+      <c r="X31" s="19" t="s">
         <v>267</v>
       </c>
       <c r="Y31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Z31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="AA31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="AB31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AC31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="AD31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="AE31" s="13">
+        <v>28</v>
+      </c>
+      <c r="AE31" s="11">
         <v>18781</v>
       </c>
     </row>
@@ -35971,7 +36157,7 @@
       <c r="B32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="13" t="s">
         <v>315</v>
       </c>
       <c r="D32" s="4">
@@ -35997,68 +36183,68 @@
       <c r="K32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="13">
         <v>1</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P32"/>
-      <c r="Q32" t="s">
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R32" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="19">
         <v>778</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="13">
         <v>4487</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U32" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="V32" s="11" t="s">
+      <c r="V32" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="23">
         <v>6</v>
       </c>
-      <c r="X32" t="s">
+      <c r="X32" s="19" t="s">
         <v>268</v>
       </c>
       <c r="Y32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="Z32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AA32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AC32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AD32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AE32" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE32" s="10">
         <v>18773</v>
       </c>
     </row>
@@ -36069,7 +36255,7 @@
       <c r="B33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="13" t="s">
         <v>316</v>
       </c>
       <c r="D33" s="4">
@@ -36097,70 +36283,70 @@
       <c r="K33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="13">
         <v>2</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="19">
         <v>576</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="13">
         <v>4521</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="V33" s="11" t="s">
+      <c r="V33" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="23">
         <v>6</v>
       </c>
-      <c r="X33" t="s">
+      <c r="X33" s="19" t="s">
         <v>269</v>
       </c>
       <c r="Y33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Z33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AA33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AC33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AD33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AE33" s="13">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="11">
         <v>18772</v>
       </c>
     </row>
@@ -36171,7 +36357,7 @@
       <c r="B34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="13" t="s">
         <v>317</v>
       </c>
       <c r="D34" s="4">
@@ -36197,70 +36383,70 @@
       <c r="K34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="13">
         <v>2</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q34" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R34" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="19">
         <v>989</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="13">
         <v>6052</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U34" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="V34" s="11" t="s">
+      <c r="V34" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="23">
         <v>6</v>
       </c>
-      <c r="X34" t="s">
+      <c r="X34" s="19" t="s">
         <v>270</v>
       </c>
       <c r="Y34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Z34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="AB34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AC34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="AD34" s="3">
         <f t="shared" ref="AD34:AD58" ca="1" si="3">ROUND(RAND()*48+1,0)</f>
-        <v>33</v>
-      </c>
-      <c r="AE34" s="12">
+        <v>39</v>
+      </c>
+      <c r="AE34" s="10">
         <v>18771</v>
       </c>
     </row>
@@ -36271,7 +36457,7 @@
       <c r="B35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="13" t="s">
         <v>318</v>
       </c>
       <c r="D35" s="4">
@@ -36297,46 +36483,46 @@
       <c r="K35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="13">
         <v>2</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P35"/>
-      <c r="Q35" t="s">
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="19">
         <v>656</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="13">
         <v>5293</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="V35" s="11" t="s">
+      <c r="V35" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="23">
         <v>6</v>
       </c>
-      <c r="X35" t="s">
+      <c r="X35" s="19" t="s">
         <v>271</v>
       </c>
       <c r="Y35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -36344,21 +36530,21 @@
       </c>
       <c r="AA35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="AB35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AC35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AD35" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="AE35" s="13">
+        <v>32</v>
+      </c>
+      <c r="AE35" s="11">
         <v>18770</v>
       </c>
     </row>
@@ -36369,7 +36555,7 @@
       <c r="B36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="13" t="s">
         <v>319</v>
       </c>
       <c r="D36" s="4">
@@ -36395,70 +36581,70 @@
       <c r="K36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="13">
         <v>2</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="19">
         <v>1183</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="13">
         <v>4561</v>
       </c>
-      <c r="U36" t="s">
+      <c r="U36" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="V36" s="11" t="s">
+      <c r="V36" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W36" s="3">
+      <c r="W36" s="23">
         <v>6</v>
       </c>
-      <c r="X36" t="s">
+      <c r="X36" s="19" t="s">
         <v>272</v>
       </c>
       <c r="Y36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="Z36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AA36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="AB36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="AC36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AD36" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="AE36" s="12">
+        <v>31</v>
+      </c>
+      <c r="AE36" s="10">
         <v>18767</v>
       </c>
     </row>
@@ -36469,7 +36655,7 @@
       <c r="B37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="13" t="s">
         <v>320</v>
       </c>
       <c r="D37" s="4">
@@ -36495,68 +36681,68 @@
       <c r="K37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="13">
         <v>1</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="19">
         <v>1220</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="13">
         <v>7006</v>
       </c>
-      <c r="U37"/>
-      <c r="V37" s="11" t="s">
+      <c r="U37" s="19"/>
+      <c r="V37" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W37" s="3">
+      <c r="W37" s="23">
         <v>6</v>
       </c>
-      <c r="X37" t="s">
+      <c r="X37" s="19" t="s">
         <v>273</v>
       </c>
       <c r="Y37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="Z37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AA37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="AB37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AC37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AD37" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="AE37" s="13">
+        <v>15</v>
+      </c>
+      <c r="AE37" s="11">
         <v>18754</v>
       </c>
     </row>
@@ -36567,7 +36753,7 @@
       <c r="B38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="13" t="s">
         <v>321</v>
       </c>
       <c r="D38" s="4">
@@ -36593,70 +36779,70 @@
       <c r="K38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="13">
         <v>1</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q38" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R38" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="19">
         <v>1205</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="13">
         <v>6176</v>
       </c>
-      <c r="U38" t="s">
+      <c r="U38" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="V38" s="11" t="s">
+      <c r="V38" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W38" s="23">
         <v>6</v>
       </c>
-      <c r="X38" t="s">
+      <c r="X38" s="19" t="s">
         <v>274</v>
       </c>
       <c r="Y38" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="Z38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AA38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AB38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="AC38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="AD38" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="AE38" s="12">
+        <v>11</v>
+      </c>
+      <c r="AE38" s="10">
         <v>18736</v>
       </c>
     </row>
@@ -36667,7 +36853,7 @@
       <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="13" t="s">
         <v>322</v>
       </c>
       <c r="D39" s="4">
@@ -36693,71 +36879,71 @@
       <c r="K39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="4" t="str">
+      <c r="L39" s="16" t="str">
         <f>VLOOKUP(B39,'[1]DS CBNV'!$B$6:$R$6000,17,0)</f>
         <v>binh.nguyen@solenc.vn</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="13">
         <v>2</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q39" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R39" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="19">
         <v>1080</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="13">
         <v>6864</v>
       </c>
-      <c r="U39" t="s">
+      <c r="U39" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="V39" s="11" t="s">
+      <c r="V39" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W39" s="3">
+      <c r="W39" s="23">
         <v>6</v>
       </c>
-      <c r="X39" t="s">
+      <c r="X39" s="19" t="s">
         <v>275</v>
       </c>
       <c r="Y39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="Z39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AA39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AB39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AC39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AD39" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="AE39" s="13">
+        <v>45</v>
+      </c>
+      <c r="AE39" s="11">
         <v>18688</v>
       </c>
     </row>
@@ -36768,7 +36954,7 @@
       <c r="B40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="13" t="s">
         <v>323</v>
       </c>
       <c r="D40" s="4">
@@ -36794,71 +36980,71 @@
       <c r="K40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="4" t="str">
+      <c r="L40" s="16" t="str">
         <f>VLOOKUP(B40,'[1]DS CBNV'!$B$6:$R$6000,17,0)</f>
         <v>uyen.nguyentruc@solenc.vn</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="13">
         <v>2</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q40" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="R40" t="s">
+      <c r="R40" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="19">
         <v>719</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="13">
         <v>5445</v>
       </c>
-      <c r="U40" t="s">
+      <c r="U40" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="V40" s="11" t="s">
+      <c r="V40" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W40" s="3">
+      <c r="W40" s="23">
         <v>6</v>
       </c>
-      <c r="X40" t="s">
+      <c r="X40" s="19" t="s">
         <v>276</v>
       </c>
       <c r="Y40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Z40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="AA40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="AB40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AC40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AD40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="AE40" s="12">
+        <v>39</v>
+      </c>
+      <c r="AE40" s="10">
         <v>18643</v>
       </c>
     </row>
@@ -36869,7 +37055,7 @@
       <c r="B41" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="13" t="s">
         <v>324</v>
       </c>
       <c r="D41" s="4">
@@ -36895,71 +37081,71 @@
       <c r="K41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L41" s="4" t="str">
+      <c r="L41" s="16" t="str">
         <f>VLOOKUP(B41,'[1]DS CBNV'!$B$6:$R$6000,17,0)</f>
         <v>thao.phan@solenc.vn</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="13">
         <v>2</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q41" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R41" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="19">
         <v>692</v>
       </c>
-      <c r="T41">
+      <c r="T41" s="13">
         <v>4677</v>
       </c>
-      <c r="U41" t="s">
+      <c r="U41" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="V41" s="11" t="s">
+      <c r="V41" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W41" s="23">
         <v>6</v>
       </c>
-      <c r="X41" t="s">
+      <c r="X41" s="19" t="s">
         <v>277</v>
       </c>
       <c r="Y41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Z41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AA41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="AB41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="AC41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AD41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AE41" s="13">
+        <v>43</v>
+      </c>
+      <c r="AE41" s="11">
         <v>18636</v>
       </c>
     </row>
@@ -36970,7 +37156,7 @@
       <c r="B42" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="13" t="s">
         <v>325</v>
       </c>
       <c r="D42" s="4">
@@ -36996,71 +37182,71 @@
       <c r="K42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="4" t="str">
+      <c r="L42" s="16" t="str">
         <f>VLOOKUP(B42,'[1]DS CBNV'!$B$6:$R$6000,17,0)</f>
         <v>dat.nguyen@solenc.vn</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="13">
         <v>2</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q42" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R42" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="19">
         <v>596</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="13">
         <v>4558</v>
       </c>
-      <c r="U42" t="s">
+      <c r="U42" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="V42" s="11" t="s">
+      <c r="V42" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="23">
         <v>6</v>
       </c>
-      <c r="X42" t="s">
+      <c r="X42" s="19" t="s">
         <v>278</v>
       </c>
       <c r="Y42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="AA42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AB42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AD42" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="AE42" s="12">
+        <v>26</v>
+      </c>
+      <c r="AE42" s="10">
         <v>18632</v>
       </c>
     </row>
@@ -37071,7 +37257,7 @@
       <c r="B43" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="13" t="s">
         <v>326</v>
       </c>
       <c r="D43" s="4">
@@ -37097,70 +37283,70 @@
       <c r="K43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="13">
         <v>2</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R43" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="19">
         <v>1159</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="13">
         <v>5717</v>
       </c>
-      <c r="U43" t="s">
+      <c r="U43" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="V43" s="11" t="s">
+      <c r="V43" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W43" s="23">
         <v>6</v>
       </c>
-      <c r="X43" t="s">
+      <c r="X43" s="19" t="s">
         <v>268</v>
       </c>
       <c r="Y43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="Z43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="AA43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AC43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD43" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="AE43" s="13">
+        <v>34</v>
+      </c>
+      <c r="AE43" s="11">
         <v>18631</v>
       </c>
     </row>
@@ -37171,7 +37357,7 @@
       <c r="B44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="13" t="s">
         <v>327</v>
       </c>
       <c r="D44" s="4">
@@ -37197,68 +37383,68 @@
       <c r="K44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="13">
         <v>2</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P44"/>
-      <c r="Q44" t="s">
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R44" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="19">
         <v>561</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="13">
         <v>4566</v>
       </c>
-      <c r="U44" t="s">
+      <c r="U44" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="V44" s="11" t="s">
+      <c r="V44" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="23">
         <v>6</v>
       </c>
-      <c r="X44" t="s">
+      <c r="X44" s="19" t="s">
         <v>269</v>
       </c>
       <c r="Y44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="Z44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AA44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AB44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="AC44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="AD44" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="AE44" s="12">
+        <v>25</v>
+      </c>
+      <c r="AE44" s="10">
         <v>18631</v>
       </c>
     </row>
@@ -37269,7 +37455,7 @@
       <c r="B45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="13" t="s">
         <v>328</v>
       </c>
       <c r="D45" s="4">
@@ -37295,68 +37481,68 @@
       <c r="K45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" t="s">
+      <c r="L45" s="16"/>
+      <c r="M45" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="13">
         <v>2</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q45" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R45" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="19">
         <v>1101</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="13">
         <v>6239</v>
       </c>
-      <c r="U45" t="s">
+      <c r="U45" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="V45" s="11" t="s">
+      <c r="V45" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W45" s="3">
+      <c r="W45" s="23">
         <v>6</v>
       </c>
-      <c r="X45" t="s">
+      <c r="X45" s="19" t="s">
         <v>270</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="AB45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AC45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD45" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="AE45" s="13">
+        <v>40</v>
+      </c>
+      <c r="AE45" s="11">
         <v>18608</v>
       </c>
     </row>
@@ -37367,7 +37553,7 @@
       <c r="B46" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="13" t="s">
         <v>329</v>
       </c>
       <c r="D46" s="4">
@@ -37393,70 +37579,70 @@
       <c r="K46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="L46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="13">
         <v>2</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q46" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="R46" t="s">
+      <c r="R46" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="19">
         <v>743</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="13">
         <v>4588</v>
       </c>
-      <c r="U46" t="s">
+      <c r="U46" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="V46" s="11" t="s">
+      <c r="V46" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W46" s="3">
+      <c r="W46" s="23">
         <v>6</v>
       </c>
-      <c r="X46" t="s">
+      <c r="X46" s="19" t="s">
         <v>271</v>
       </c>
       <c r="Y46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Z46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="AA46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="AB46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="AD46" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="AE46" s="12">
+        <v>17</v>
+      </c>
+      <c r="AE46" s="10">
         <v>18607</v>
       </c>
     </row>
@@ -37467,7 +37653,7 @@
       <c r="B47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="13" t="s">
         <v>330</v>
       </c>
       <c r="D47" s="4">
@@ -37493,68 +37679,68 @@
       <c r="K47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="13">
         <v>2</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P47"/>
-      <c r="Q47" t="s">
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R47" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="19">
         <v>688</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="13">
         <v>4706</v>
       </c>
-      <c r="U47" t="s">
+      <c r="U47" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="V47" s="11" t="s">
+      <c r="V47" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W47" s="23">
         <v>6</v>
       </c>
-      <c r="X47" t="s">
+      <c r="X47" s="19" t="s">
         <v>272</v>
       </c>
       <c r="Y47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Z47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AA47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AC47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="AD47" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="AE47" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE47" s="11">
         <v>18588</v>
       </c>
     </row>
@@ -37565,7 +37751,7 @@
       <c r="B48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="13" t="s">
         <v>331</v>
       </c>
       <c r="D48" s="4">
@@ -37591,70 +37777,70 @@
       <c r="K48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="L48" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="13">
         <v>2</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="Q48" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="R48" t="s">
+      <c r="R48" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="19">
         <v>853</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="13">
         <v>4598</v>
       </c>
-      <c r="U48" t="s">
+      <c r="U48" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="V48" s="11" t="s">
+      <c r="V48" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W48" s="23">
         <v>6</v>
       </c>
-      <c r="X48" t="s">
+      <c r="X48" s="19" t="s">
         <v>273</v>
       </c>
       <c r="Y48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="Z48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AA48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AB48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="AC48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AD48" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="AE48" s="12">
+        <v>7</v>
+      </c>
+      <c r="AE48" s="10">
         <v>18587</v>
       </c>
     </row>
@@ -37665,7 +37851,7 @@
       <c r="B49" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="13" t="s">
         <v>332</v>
       </c>
       <c r="D49" s="4">
@@ -37691,70 +37877,70 @@
       <c r="K49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="L49" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="13">
         <v>1</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="Q49" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="R49" t="s">
+      <c r="R49" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="19">
         <v>1144</v>
       </c>
-      <c r="T49">
+      <c r="T49" s="13">
         <v>4631</v>
       </c>
-      <c r="U49" t="s">
+      <c r="U49" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="V49" s="11" t="s">
+      <c r="V49" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="23">
         <v>6</v>
       </c>
-      <c r="X49" t="s">
+      <c r="X49" s="19" t="s">
         <v>274</v>
       </c>
       <c r="Y49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Z49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="AA49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AB49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="AC49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="AD49" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="AE49" s="13">
+        <v>31</v>
+      </c>
+      <c r="AE49" s="11">
         <v>18584</v>
       </c>
     </row>
@@ -37765,7 +37951,7 @@
       <c r="B50" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="13" t="s">
         <v>333</v>
       </c>
       <c r="D50" s="4">
@@ -37791,70 +37977,70 @@
       <c r="K50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="L50" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="13">
         <v>2</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="Q50" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="R50" t="s">
+      <c r="R50" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="19">
         <v>300</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="13">
         <v>4730</v>
       </c>
-      <c r="U50" t="s">
+      <c r="U50" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="V50" s="11" t="s">
+      <c r="V50" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W50" s="3">
+      <c r="W50" s="23">
         <v>6</v>
       </c>
-      <c r="X50" t="s">
+      <c r="X50" s="19" t="s">
         <v>275</v>
       </c>
       <c r="Y50" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="Z50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AA50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="AB50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AC50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD50" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AE50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="10">
         <v>18576</v>
       </c>
     </row>
@@ -37865,7 +38051,7 @@
       <c r="B51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="13" t="s">
         <v>334</v>
       </c>
       <c r="D51" s="4">
@@ -37891,68 +38077,68 @@
       <c r="K51" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="L51" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="13">
         <v>2</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P51"/>
-      <c r="Q51" t="s">
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R51" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="19">
         <v>1124</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="13">
         <v>6309</v>
       </c>
-      <c r="U51" t="s">
+      <c r="U51" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="V51" s="11" t="s">
+      <c r="V51" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W51" s="3">
+      <c r="W51" s="23">
         <v>6</v>
       </c>
-      <c r="X51" t="s">
+      <c r="X51" s="19" t="s">
         <v>276</v>
       </c>
       <c r="Y51" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="Z51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="AA51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AB51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="AC51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AD51" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="AE51" s="13">
+        <v>48</v>
+      </c>
+      <c r="AE51" s="11">
         <v>18571</v>
       </c>
     </row>
@@ -37963,7 +38149,7 @@
       <c r="B52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="13" t="s">
         <v>335</v>
       </c>
       <c r="D52" s="4">
@@ -37989,70 +38175,70 @@
       <c r="K52" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="L52" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="13">
         <v>1</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="Q52" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="R52" t="s">
+      <c r="R52" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="19">
         <v>737</v>
       </c>
-      <c r="T52">
+      <c r="T52" s="13">
         <v>4724</v>
       </c>
-      <c r="U52" t="s">
+      <c r="U52" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="V52" s="11" t="s">
+      <c r="V52" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="23">
         <v>6</v>
       </c>
-      <c r="X52" t="s">
+      <c r="X52" s="19" t="s">
         <v>277</v>
       </c>
       <c r="Y52" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="Z52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AA52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AB52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="AC52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AD52" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="AE52" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE52" s="10">
         <v>18554</v>
       </c>
     </row>
@@ -38063,7 +38249,7 @@
       <c r="B53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="13" t="s">
         <v>336</v>
       </c>
       <c r="D53" s="4">
@@ -38089,70 +38275,70 @@
       <c r="K53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="L53" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="13">
         <v>2</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="Q53" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="R53" t="s">
+      <c r="R53" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="19">
         <v>873</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="13">
         <v>4697</v>
       </c>
-      <c r="U53" t="s">
+      <c r="U53" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="V53" s="11" t="s">
+      <c r="V53" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W53" s="3">
+      <c r="W53" s="23">
         <v>6</v>
       </c>
-      <c r="X53" t="s">
+      <c r="X53" s="19" t="s">
         <v>278</v>
       </c>
       <c r="Y53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="Z53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AA53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="AB53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AC53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AD53" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>32</v>
       </c>
-      <c r="AE53" s="13">
+      <c r="AE53" s="11">
         <v>18553</v>
       </c>
     </row>
@@ -38163,7 +38349,7 @@
       <c r="B54" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="13" t="s">
         <v>337</v>
       </c>
       <c r="D54" s="4">
@@ -38189,71 +38375,71 @@
       <c r="K54" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L54" s="4" t="str">
+      <c r="L54" s="16" t="str">
         <f>VLOOKUP(B54,'[1]DS CBNV'!$B$6:$R$6000,17,0)</f>
         <v>thuong.vo@solenc.vn</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="13">
         <v>2</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O54" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q54" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="R54" t="s">
+      <c r="R54" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="19">
         <v>768</v>
       </c>
-      <c r="T54">
+      <c r="T54" s="13">
         <v>4698</v>
       </c>
-      <c r="U54" t="s">
+      <c r="U54" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="V54" s="11" t="s">
+      <c r="V54" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W54" s="3">
+      <c r="W54" s="23">
         <v>6</v>
       </c>
-      <c r="X54" t="s">
+      <c r="X54" s="19" t="s">
         <v>275</v>
       </c>
       <c r="Y54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="Z54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AA54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AB54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AC54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="AD54" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="AE54" s="12">
+        <v>17</v>
+      </c>
+      <c r="AE54" s="10">
         <v>18519</v>
       </c>
     </row>
@@ -38262,7 +38448,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5"/>
-      <c r="C55" t="s">
+      <c r="C55" s="13" t="s">
         <v>338</v>
       </c>
       <c r="D55" s="4">
@@ -38288,70 +38474,70 @@
       <c r="K55" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="L55" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="13">
         <v>1</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="Q55" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="R55" t="s">
+      <c r="R55" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="19">
         <v>840</v>
       </c>
-      <c r="T55">
+      <c r="T55" s="13">
         <v>4704</v>
       </c>
-      <c r="U55" t="s">
+      <c r="U55" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="V55" s="11" t="s">
+      <c r="V55" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W55" s="3">
+      <c r="W55" s="23">
         <v>6</v>
       </c>
-      <c r="X55" t="s">
+      <c r="X55" s="19" t="s">
         <v>276</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="AB55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="AC55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD55" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="AE55" s="13">
+        <v>36</v>
+      </c>
+      <c r="AE55" s="11">
         <v>18479</v>
       </c>
     </row>
@@ -38360,7 +38546,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5"/>
-      <c r="C56" t="s">
+      <c r="C56" s="13" t="s">
         <v>339</v>
       </c>
       <c r="D56" s="4">
@@ -38386,68 +38572,68 @@
       <c r="K56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="L56" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="13">
         <v>2</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O56" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P56"/>
-      <c r="Q56" t="s">
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="R56" t="s">
+      <c r="R56" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="19">
         <v>1151</v>
       </c>
-      <c r="T56">
+      <c r="T56" s="13">
         <v>6939</v>
       </c>
-      <c r="U56" t="s">
+      <c r="U56" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="V56" s="11" t="s">
+      <c r="V56" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W56" s="3">
+      <c r="W56" s="23">
         <v>6</v>
       </c>
-      <c r="X56" t="s">
+      <c r="X56" s="19" t="s">
         <v>277</v>
       </c>
       <c r="Y56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="Z56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AA56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AB56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="AC56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="AD56" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="AE56" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE56" s="10">
         <v>18472</v>
       </c>
     </row>
@@ -38456,7 +38642,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" t="s">
+      <c r="C57" s="13" t="s">
         <v>340</v>
       </c>
       <c r="D57" s="4">
@@ -38482,70 +38668,70 @@
       <c r="K57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="L57" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="13">
         <v>1</v>
       </c>
-      <c r="O57" t="s">
+      <c r="O57" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="Q57" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="R57" t="s">
+      <c r="R57" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="19">
         <v>1046</v>
       </c>
-      <c r="T57">
+      <c r="T57" s="13">
         <v>5171</v>
       </c>
-      <c r="U57" t="s">
+      <c r="U57" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="V57" s="11" t="s">
+      <c r="V57" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W57" s="23">
         <v>6</v>
       </c>
-      <c r="X57" t="s">
+      <c r="X57" s="19" t="s">
         <v>278</v>
       </c>
       <c r="Y57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="Z57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AB57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AC57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AD57" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="AE57" s="13">
+        <v>23</v>
+      </c>
+      <c r="AE57" s="11">
         <v>18472</v>
       </c>
     </row>
@@ -38554,7 +38740,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5"/>
-      <c r="C58" t="s">
+      <c r="C58" s="13" t="s">
         <v>341</v>
       </c>
       <c r="D58" s="4">
@@ -38580,69 +38766,75 @@
       <c r="K58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="4" t="s">
+      <c r="L58" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="S58">
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="19">
         <v>1046</v>
       </c>
-      <c r="T58">
+      <c r="T58" s="13">
         <v>4763</v>
       </c>
-      <c r="U58" t="s">
+      <c r="U58" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="V58" s="11" t="s">
+      <c r="V58" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="23">
         <v>6</v>
       </c>
-      <c r="X58" t="s">
+      <c r="X58" s="19" t="s">
         <v>254</v>
       </c>
       <c r="Y58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="AA58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AB58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AC58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AD58" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="AE58" s="12">
+        <v>19</v>
+      </c>
+      <c r="AE58" s="10">
         <v>18470</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="C59"/>
+      <c r="C59" s="13"/>
       <c r="H59" s="8"/>
       <c r="J59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="3"/>
-      <c r="AE59" s="13"/>
+      <c r="L59" s="16"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="23"/>
+      <c r="AE59" s="11"/>
     </row>
     <row r="60" spans="1:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="C60"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -38650,14 +38842,14 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="AE60" s="12"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="AE60" s="10"/>
     </row>
     <row r="61" spans="1:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="C61"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -38665,14 +38857,14 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="AE61" s="13"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="AE61" s="11"/>
     </row>
     <row r="62" spans="1:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="C62"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -38680,10 +38872,10 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="AE62" s="12"/>
+      <c r="AE62" s="10"/>
     </row>
     <row r="63" spans="1:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="C63" s="2"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -38691,10 +38883,10 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="AE63" s="13"/>
+      <c r="AE63" s="11"/>
     </row>
     <row r="64" spans="1:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="C64" s="2"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -38702,10 +38894,10 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
-      <c r="AE64" s="12"/>
+      <c r="AE64" s="10"/>
     </row>
     <row r="65" spans="2:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="C65" s="2"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -38713,10 +38905,10 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="AE65" s="13"/>
+      <c r="AE65" s="11"/>
     </row>
     <row r="66" spans="2:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="C66" s="2"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -38724,10 +38916,10 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
-      <c r="AE66" s="12"/>
+      <c r="AE66" s="10"/>
     </row>
     <row r="67" spans="2:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="C67" s="2"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -38735,10 +38927,10 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
-      <c r="AE67" s="13"/>
+      <c r="AE67" s="11"/>
     </row>
     <row r="68" spans="2:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="C68" s="2"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -38746,10 +38938,10 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="AE68" s="12"/>
+      <c r="AE68" s="10"/>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="C69" s="2"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -38759,7 +38951,7 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="C70" s="2"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -38769,7 +38961,7 @@
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B71" s="1"/>
-      <c r="C71" s="2"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -38779,7 +38971,7 @@
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B72" s="1"/>
-      <c r="C72" s="2"/>
+      <c r="C72" s="17"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -38788,7 +38980,7 @@
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="C73" s="2"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -38798,7 +38990,7 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="C74" s="2"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -38808,7 +39000,7 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="C75" s="2"/>
+      <c r="C75" s="17"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -38818,7 +39010,7 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="C76" s="2"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -38828,7 +39020,7 @@
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="C77" s="2"/>
+      <c r="C77" s="17"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -38838,7 +39030,7 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="C78" s="2"/>
+      <c r="C78" s="17"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -38848,7 +39040,7 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="C79" s="2"/>
+      <c r="C79" s="17"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -38858,7 +39050,7 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="C80" s="2"/>
+      <c r="C80" s="17"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -38868,7 +39060,7 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C81" s="2"/>
+      <c r="C81" s="17"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -38878,7 +39070,7 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C82" s="2"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -38888,7 +39080,7 @@
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C83" s="2"/>
+      <c r="C83" s="17"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -38898,7 +39090,7 @@
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C84" s="2"/>
+      <c r="C84" s="17"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -38908,7 +39100,7 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C85" s="2"/>
+      <c r="C85" s="17"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -38918,7 +39110,7 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C86" s="2"/>
+      <c r="C86" s="17"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -38928,7 +39120,7 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C87" s="2"/>
+      <c r="C87" s="17"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -38938,7 +39130,7 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C88" s="2"/>
+      <c r="C88" s="17"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -38948,7 +39140,7 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C89" s="2"/>
+      <c r="C89" s="17"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -38958,7 +39150,7 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C90" s="2"/>
+      <c r="C90" s="17"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -38968,7 +39160,7 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C91" s="2"/>
+      <c r="C91" s="17"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -38978,7 +39170,7 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C92" s="2"/>
+      <c r="C92" s="17"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -38988,7 +39180,7 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C93" s="2"/>
+      <c r="C93" s="17"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -38998,7 +39190,7 @@
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C94" s="2"/>
+      <c r="C94" s="17"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -39008,7 +39200,7 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C95" s="2"/>
+      <c r="C95" s="17"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -39018,7 +39210,7 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C96" s="2"/>
+      <c r="C96" s="17"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -39028,7 +39220,7 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C97" s="2"/>
+      <c r="C97" s="17"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -39038,7 +39230,7 @@
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C98" s="2"/>
+      <c r="C98" s="17"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -39048,7 +39240,7 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C99" s="2"/>
+      <c r="C99" s="17"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -39058,7 +39250,7 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C100" s="2"/>
+      <c r="C100" s="17"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -39068,7 +39260,7 @@
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C101" s="2"/>
+      <c r="C101" s="17"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -39078,7 +39270,7 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C102" s="2"/>
+      <c r="C102" s="17"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -39088,7 +39280,7 @@
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C103" s="2"/>
+      <c r="C103" s="17"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -39098,7 +39290,7 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C104" s="2"/>
+      <c r="C104" s="17"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -39108,7 +39300,7 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C105" s="2"/>
+      <c r="C105" s="17"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -39118,7 +39310,7 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C106" s="2"/>
+      <c r="C106" s="17"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -39128,7 +39320,7 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C107" s="2"/>
+      <c r="C107" s="17"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -39138,7 +39330,7 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C108" s="2"/>
+      <c r="C108" s="17"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -39148,7 +39340,7 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C109" s="2"/>
+      <c r="C109" s="17"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -39157,7 +39349,7 @@
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C110" s="2"/>
+      <c r="C110" s="17"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -39166,7 +39358,7 @@
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C111" s="2"/>
+      <c r="C111" s="17"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -39175,7 +39367,7 @@
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C112" s="2"/>
+      <c r="C112" s="17"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -39184,7 +39376,7 @@
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C113" s="2"/>
+      <c r="C113" s="17"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -39193,7 +39385,7 @@
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C114" s="2"/>
+      <c r="C114" s="17"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -39202,7 +39394,7 @@
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C115" s="2"/>
+      <c r="C115" s="17"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -39211,7 +39403,7 @@
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C116" s="2"/>
+      <c r="C116" s="17"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -39220,7 +39412,7 @@
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C117" s="2"/>
+      <c r="C117" s="17"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -39229,7 +39421,7 @@
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C118" s="2"/>
+      <c r="C118" s="17"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -39238,7 +39430,7 @@
       <c r="I118" s="2"/>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C119" s="2"/>
+      <c r="C119" s="17"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -39247,7 +39439,7 @@
       <c r="I119" s="2"/>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C120" s="2"/>
+      <c r="C120" s="17"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -39256,7 +39448,7 @@
       <c r="I120" s="2"/>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C121" s="2"/>
+      <c r="C121" s="17"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -39265,7 +39457,7 @@
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C122" s="2"/>
+      <c r="C122" s="17"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -39274,7 +39466,7 @@
       <c r="I122" s="2"/>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C123" s="2"/>
+      <c r="C123" s="17"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -39283,7 +39475,7 @@
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C124" s="2"/>
+      <c r="C124" s="17"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -39292,7 +39484,7 @@
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C125" s="2"/>
+      <c r="C125" s="17"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -39301,7 +39493,7 @@
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C126" s="2"/>
+      <c r="C126" s="17"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -39310,7 +39502,7 @@
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C127" s="2"/>
+      <c r="C127" s="17"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -39319,7 +39511,7 @@
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C128" s="2"/>
+      <c r="C128" s="17"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -39328,7 +39520,7 @@
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C129" s="2"/>
+      <c r="C129" s="17"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -39337,7 +39529,7 @@
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C130" s="2"/>
+      <c r="C130" s="17"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -39346,7 +39538,7 @@
       <c r="I130" s="2"/>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C131" s="2"/>
+      <c r="C131" s="17"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -39355,7 +39547,7 @@
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C132" s="2"/>
+      <c r="C132" s="17"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -39364,7 +39556,7 @@
       <c r="I132" s="2"/>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C133" s="2"/>
+      <c r="C133" s="17"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -39373,7 +39565,7 @@
       <c r="I133" s="2"/>
     </row>
     <row r="134" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C134" s="2"/>
+      <c r="C134" s="17"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -39382,7 +39574,7 @@
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C135" s="2"/>
+      <c r="C135" s="17"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -39391,7 +39583,7 @@
       <c r="I135" s="2"/>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C136" s="2"/>
+      <c r="C136" s="17"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -39400,7 +39592,7 @@
       <c r="I136" s="2"/>
     </row>
     <row r="137" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C137" s="2"/>
+      <c r="C137" s="17"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -39409,7 +39601,7 @@
       <c r="I137" s="2"/>
     </row>
     <row r="138" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C138" s="2"/>
+      <c r="C138" s="17"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -39418,7 +39610,7 @@
       <c r="I138" s="2"/>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C139" s="2"/>
+      <c r="C139" s="17"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -39427,7 +39619,7 @@
       <c r="I139" s="2"/>
     </row>
     <row r="140" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C140" s="2"/>
+      <c r="C140" s="17"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -39484,4 +39676,887 @@
   <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.15748031496062992" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="19" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21531419-40E7-0243-BC9C-212D55CF9E47}">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25">
+        <v>10308</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25">
+        <v>10308</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>20618</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
+        <v>20618</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25">
+        <v>20873</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="25">
+        <v>2</v>
+      </c>
+      <c r="E4" s="25">
+        <v>20873</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25">
+        <v>21345</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="25">
+        <v>3</v>
+      </c>
+      <c r="E5" s="25">
+        <v>21345</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25">
+        <v>21351</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="25">
+        <v>4</v>
+      </c>
+      <c r="E6" s="25">
+        <v>21351</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25">
+        <v>21567</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="25">
+        <v>5</v>
+      </c>
+      <c r="E7" s="25">
+        <v>21567</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25">
+        <v>22265</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="25">
+        <v>6</v>
+      </c>
+      <c r="E8" s="25">
+        <v>22265</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25">
+        <v>22636</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="25">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25">
+        <v>22636</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25">
+        <v>22638</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="25">
+        <v>8</v>
+      </c>
+      <c r="E10" s="25">
+        <v>22638</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25">
+        <v>22640</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="25">
+        <v>9</v>
+      </c>
+      <c r="E11" s="25">
+        <v>22640</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>10</v>
+      </c>
+      <c r="B12" s="25">
+        <v>22641</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="25">
+        <v>10</v>
+      </c>
+      <c r="E12" s="25">
+        <v>22641</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="25">
+        <v>11</v>
+      </c>
+      <c r="B13" s="25">
+        <v>22642</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" s="25">
+        <v>11</v>
+      </c>
+      <c r="E13" s="25">
+        <v>22642</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="25">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25">
+        <v>22644</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D14" s="25">
+        <v>12</v>
+      </c>
+      <c r="E14" s="25">
+        <v>22644</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="25">
+        <v>13</v>
+      </c>
+      <c r="B15" s="25">
+        <v>22645</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" s="25">
+        <v>13</v>
+      </c>
+      <c r="E15" s="25">
+        <v>22645</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="25">
+        <v>14</v>
+      </c>
+      <c r="B16" s="25">
+        <v>22711</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" s="25">
+        <v>14</v>
+      </c>
+      <c r="E16" s="25">
+        <v>22711</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="25">
+        <v>15</v>
+      </c>
+      <c r="B17" s="25">
+        <v>23062</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="25">
+        <v>15</v>
+      </c>
+      <c r="E17" s="25">
+        <v>23062</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
+        <v>16</v>
+      </c>
+      <c r="B18" s="25">
+        <v>23162</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18" s="25">
+        <v>16</v>
+      </c>
+      <c r="E18" s="25">
+        <v>23162</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
+        <v>17</v>
+      </c>
+      <c r="B19" s="25">
+        <v>23163</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D19" s="25">
+        <v>17</v>
+      </c>
+      <c r="E19" s="25">
+        <v>23163</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="25">
+        <v>18</v>
+      </c>
+      <c r="B20" s="25">
+        <v>23164</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="25">
+        <v>18</v>
+      </c>
+      <c r="E20" s="25">
+        <v>23164</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="25">
+        <v>19</v>
+      </c>
+      <c r="B21" s="25">
+        <v>23165</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" s="25">
+        <v>19</v>
+      </c>
+      <c r="E21" s="25">
+        <v>23165</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="25">
+        <v>20</v>
+      </c>
+      <c r="B22" s="25">
+        <v>23167</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="25">
+        <v>20</v>
+      </c>
+      <c r="E22" s="25">
+        <v>23167</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
+        <v>21</v>
+      </c>
+      <c r="B23" s="25">
+        <v>23168</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D23" s="25">
+        <v>21</v>
+      </c>
+      <c r="E23" s="25">
+        <v>23168</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="25">
+        <v>22</v>
+      </c>
+      <c r="B24" s="25">
+        <v>23169</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" s="25">
+        <v>22</v>
+      </c>
+      <c r="E24" s="25">
+        <v>23169</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="25">
+        <v>23170</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D25" s="25">
+        <v>23</v>
+      </c>
+      <c r="E25" s="25">
+        <v>23170</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
+        <v>24</v>
+      </c>
+      <c r="B26" s="25">
+        <v>23172</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D26" s="25">
+        <v>24</v>
+      </c>
+      <c r="E26" s="25">
+        <v>23172</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="25">
+        <v>25</v>
+      </c>
+      <c r="B27" s="25">
+        <v>23173</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="D27" s="25">
+        <v>25</v>
+      </c>
+      <c r="E27" s="25">
+        <v>23173</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="25">
+        <v>26</v>
+      </c>
+      <c r="B28" s="25">
+        <v>23198</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D28" s="25">
+        <v>26</v>
+      </c>
+      <c r="E28" s="25">
+        <v>23198</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="25">
+        <v>27</v>
+      </c>
+      <c r="B29" s="25">
+        <v>23199</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="D29" s="25">
+        <v>27</v>
+      </c>
+      <c r="E29" s="25">
+        <v>23199</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="25">
+        <v>28</v>
+      </c>
+      <c r="B30" s="25">
+        <v>23200</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D30" s="25">
+        <v>28</v>
+      </c>
+      <c r="E30" s="25">
+        <v>23200</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="25">
+        <v>29</v>
+      </c>
+      <c r="B31" s="25">
+        <v>23201</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D31" s="25">
+        <v>29</v>
+      </c>
+      <c r="E31" s="25">
+        <v>23201</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="25">
+        <v>30</v>
+      </c>
+      <c r="B32" s="25">
+        <v>23202</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D32" s="25">
+        <v>30</v>
+      </c>
+      <c r="E32" s="25">
+        <v>23202</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="25">
+        <v>31</v>
+      </c>
+      <c r="B33" s="25">
+        <v>23203</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="D33" s="25">
+        <v>31</v>
+      </c>
+      <c r="E33" s="25">
+        <v>23203</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="25">
+        <v>32</v>
+      </c>
+      <c r="B34" s="25">
+        <v>23204</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D34" s="25">
+        <v>32</v>
+      </c>
+      <c r="E34" s="25">
+        <v>23204</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="25">
+        <v>33</v>
+      </c>
+      <c r="B35" s="25">
+        <v>23205</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D35" s="25">
+        <v>33</v>
+      </c>
+      <c r="E35" s="25">
+        <v>23205</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="25">
+        <v>34</v>
+      </c>
+      <c r="B36" s="25">
+        <v>23206</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D36" s="25">
+        <v>34</v>
+      </c>
+      <c r="E36" s="25">
+        <v>23206</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="25">
+        <v>35</v>
+      </c>
+      <c r="B37" s="25">
+        <v>23481</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="D37" s="25">
+        <v>35</v>
+      </c>
+      <c r="E37" s="25">
+        <v>23481</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="25">
+        <v>36</v>
+      </c>
+      <c r="B38" s="25">
+        <v>23482</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D38" s="25">
+        <v>36</v>
+      </c>
+      <c r="E38" s="25">
+        <v>23482</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="25">
+        <v>37</v>
+      </c>
+      <c r="B39" s="25">
+        <v>23484</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D39" s="25">
+        <v>37</v>
+      </c>
+      <c r="E39" s="25">
+        <v>23484</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="25">
+        <v>38</v>
+      </c>
+      <c r="B40" s="25">
+        <v>23485</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="D40" s="25">
+        <v>38</v>
+      </c>
+      <c r="E40" s="25">
+        <v>23485</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="25">
+        <v>39</v>
+      </c>
+      <c r="B41" s="25">
+        <v>23487</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41" s="25">
+        <v>39</v>
+      </c>
+      <c r="E41" s="25">
+        <v>23487</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="25">
+        <v>40</v>
+      </c>
+      <c r="B42" s="25">
+        <v>23488</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D42" s="25">
+        <v>40</v>
+      </c>
+      <c r="E42" s="25">
+        <v>23488</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="25">
+        <v>41</v>
+      </c>
+      <c r="B43" s="25">
+        <v>23490</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="D43" s="25">
+        <v>41</v>
+      </c>
+      <c r="E43" s="25">
+        <v>23490</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="25">
+        <v>42</v>
+      </c>
+      <c r="B44" s="25">
+        <v>23930</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>